--- a/public/jiaban.xlsx
+++ b/public/jiaban.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5933" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6934" uniqueCount="565">
   <si>
     <t>localId</t>
   </si>
@@ -1635,6 +1635,180 @@
   <si>
     <t>加班  郑金霞  ts</t>
   </si>
+  <si>
+    <t>加班 连伟程 学习技术框架</t>
+  </si>
+  <si>
+    <t>加班  林坚贤  标书(补5月19日)</t>
+  </si>
+  <si>
+    <t>加班 陈亿涵 驻场（补5月19日）</t>
+  </si>
+  <si>
+    <t>&lt;revokemsg&gt;"电信五所-张笃煌" 撤回了一条消息&lt;/revokemsg&gt;</t>
+  </si>
+  <si>
+    <t>加班 张笃煌 驻场（补5月19日）</t>
+  </si>
+  <si>
+    <t>加班 谢忠洪 测试</t>
+  </si>
+  <si>
+    <t>加班 郑金霞 文档</t>
+  </si>
+  <si>
+    <t>加班 卓艳佳 文档</t>
+  </si>
+  <si>
+    <t>加班 连伟程 技术框架</t>
+  </si>
+  <si>
+    <t>加班 雷福财 驻场（补5月23日）</t>
+  </si>
+  <si>
+    <t>加班 陈楠 驻场（补5月23日）</t>
+  </si>
+  <si>
+    <t>加班  林坚贤  标书（补5月23日）</t>
+  </si>
+  <si>
+    <t>加班  郑金霞  hz</t>
+  </si>
+  <si>
+    <t>加班 马鹏飞 测试</t>
+  </si>
+  <si>
+    <t>"电信五所-马鹏飞" 撤回了一条消息</t>
+  </si>
+  <si>
+    <t>加班 马鹏飞 测试（补5月23号）</t>
+  </si>
+  <si>
+    <t>加班 连伟程 技术框架（补5月23日）</t>
+  </si>
+  <si>
+    <t>加班 谢忠洪 测试（补5月23号）</t>
+  </si>
+  <si>
+    <t>加班 邱潘 ts（补 5 月 25 日）</t>
+  </si>
+  <si>
+    <t>加班  单露  标书</t>
+  </si>
+  <si>
+    <t>加班 张笃煌 ts</t>
+  </si>
+  <si>
+    <t>加班 郑金霞 驻场（补5月26日）</t>
+  </si>
+  <si>
+    <t>加班 雷宇 驻场（补5月26日）</t>
+  </si>
+  <si>
+    <t>加班 谢忠洪 测试（补5月27日）</t>
+  </si>
+  <si>
+    <t>加班 马鹏飞 测试（补5月27）</t>
+  </si>
+  <si>
+    <t>加班  林坚贤  驻场(补5月28日)</t>
+  </si>
+  <si>
+    <t>加班 陈楠 ts</t>
+  </si>
+  <si>
+    <t>加班  陈楠  ts(补6月1日)</t>
+  </si>
+  <si>
+    <t>加班 邱潘 ts（补 6 月 1 日）</t>
+  </si>
+  <si>
+    <t>加班  郑金霞  驻场(补6月3日)</t>
+  </si>
+  <si>
+    <t>加班 陈楠 驻场（补6月4日）</t>
+  </si>
+  <si>
+    <t>加班 雷福财 驻场（补6月4日）</t>
+  </si>
+  <si>
+    <t>加班 杨思扬 驻场（补6月4日）</t>
+  </si>
+  <si>
+    <t>加班 谢忠洪 ts</t>
+  </si>
+  <si>
+    <t>加班  单露  演示</t>
+  </si>
+  <si>
+    <t>加班  林坚贤  演示</t>
+  </si>
+  <si>
+    <t>加班 谢忠洪 ts（补6.8）</t>
+  </si>
+  <si>
+    <t>加班 雷福财 ts</t>
+  </si>
+  <si>
+    <t>加班 陈亿涵 ts（补6.9）</t>
+  </si>
+  <si>
+    <t>加班 张笃煌 ts（补6.9）</t>
+  </si>
+  <si>
+    <t>加班 叶铮铭 ts（补6.9）</t>
+  </si>
+  <si>
+    <t>加班 邱潘 ts（补 6 月 9 日）</t>
+  </si>
+  <si>
+    <t>加班 谢忠洪 ts（补6月10）</t>
+  </si>
+  <si>
+    <t>加班 卓艳佳 驻场（补6月10）</t>
+  </si>
+  <si>
+    <t>加班 郑金霞 驻场(补6月10日)</t>
+  </si>
+  <si>
+    <t>加班 邵鑫 驻场(补6月10日)</t>
+  </si>
+  <si>
+    <t>加班 吴良浩 驻场 (补6月10日)</t>
+  </si>
+  <si>
+    <t>加班 连伟程 驻场 (补6月10日)</t>
+  </si>
+  <si>
+    <t>加班 卓艳佳 驻场（补6月12）</t>
+  </si>
+  <si>
+    <t>加班  单露  标书（补6月10）</t>
+  </si>
+  <si>
+    <t>加班 郑金霞 驻场（补6月12）</t>
+  </si>
+  <si>
+    <t>加班 谢忠洪 ts（补6月12）</t>
+  </si>
+  <si>
+    <t>加班 郑金霞 驻场（补6月17）</t>
+  </si>
+  <si>
+    <t>&lt;revokemsg&gt;"电信五所–曾ZZH" 撤回了一条消息&lt;/revokemsg&gt;</t>
+  </si>
+  <si>
+    <t>电信五所–曾ZZH</t>
+  </si>
+  <si>
+    <t>曾ZZH</t>
+  </si>
+  <si>
+    <t>wxid_49k6fpuxt51641</t>
+  </si>
+  <si>
+    <t>@所有人 各位同学，明天下午之前把各自的餐补情况报给我，明天晚上核对，后天发成都。时间：5月19日至6月18日。谢！[握手][抱拳]</t>
+  </si>
 </sst>
 </file>
 
@@ -2576,10 +2750,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:M1532"/>
+  <dimension ref="B1:M1788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1505" workbookViewId="0">
-      <selection activeCell="O1511" sqref="O1511"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -58591,6 +58765,9708 @@
       </c>
       <c r="M1532" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:13">
+      <c r="B1533" s="2">
+        <v>61457</v>
+      </c>
+      <c r="C1533" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1533" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1533" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1533" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1533" s="2">
+        <v>1747661116</v>
+      </c>
+      <c r="H1533" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1533" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1533" s="4">
+        <v>45796.8925462963</v>
+      </c>
+      <c r="K1533" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1533" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1533" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1534" spans="2:13">
+      <c r="B1534" s="2">
+        <v>61458</v>
+      </c>
+      <c r="C1534" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1534" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1534" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1534" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1534" s="2">
+        <v>1747661447</v>
+      </c>
+      <c r="H1534" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1534" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1534" s="4">
+        <v>45796.8963773148</v>
+      </c>
+      <c r="K1534" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1534" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1534" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:13">
+      <c r="B1535" s="2">
+        <v>61459</v>
+      </c>
+      <c r="C1535" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1535" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1535" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1535" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1535" s="2">
+        <v>1747661806</v>
+      </c>
+      <c r="H1535" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1535" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1535" s="4">
+        <v>45796.9005324074</v>
+      </c>
+      <c r="K1535" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1535" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1535" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:13">
+      <c r="B1536" s="2">
+        <v>61460</v>
+      </c>
+      <c r="C1536" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1536" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1536" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1536" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1536" s="2">
+        <v>1747663925</v>
+      </c>
+      <c r="H1536" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1536" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J1536" s="4">
+        <v>45796.9250578704</v>
+      </c>
+      <c r="K1536" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1536" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1536" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:13">
+      <c r="B1537" s="2">
+        <v>61461</v>
+      </c>
+      <c r="C1537" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1537" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1537" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1537" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1537" s="2">
+        <v>1747663974</v>
+      </c>
+      <c r="H1537" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1537" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J1537" s="4">
+        <v>45796.925625</v>
+      </c>
+      <c r="K1537" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1537" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1537" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:13">
+      <c r="B1538" s="2">
+        <v>61462</v>
+      </c>
+      <c r="C1538" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1538" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1538" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1538" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1538" s="2">
+        <v>1747664900</v>
+      </c>
+      <c r="H1538" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1538" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1538" s="4">
+        <v>45796.9363425926</v>
+      </c>
+      <c r="K1538" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1538" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1538" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:13">
+      <c r="B1539" s="2">
+        <v>61463</v>
+      </c>
+      <c r="C1539" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1539" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1539" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1539" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1539" s="2">
+        <v>1747664968</v>
+      </c>
+      <c r="H1539" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1539" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1539" s="4">
+        <v>45796.9371296296</v>
+      </c>
+      <c r="K1539" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1539" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1539" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:13">
+      <c r="B1540" s="2">
+        <v>61464</v>
+      </c>
+      <c r="C1540" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1540" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1540" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1540" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1540" s="2">
+        <v>1747664983</v>
+      </c>
+      <c r="H1540" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1540" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1540" s="4">
+        <v>45796.9373032407</v>
+      </c>
+      <c r="K1540" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1540" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1540" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:13">
+      <c r="B1541" s="2">
+        <v>61472</v>
+      </c>
+      <c r="C1541" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1541" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1541" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1541" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1541" s="2">
+        <v>1747672537</v>
+      </c>
+      <c r="H1541" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1541" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1541" s="4">
+        <v>45797.0247337963</v>
+      </c>
+      <c r="K1541" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1541" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1541" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:13">
+      <c r="B1542" s="2">
+        <v>61602</v>
+      </c>
+      <c r="C1542" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1542" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1542" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1542" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1542" s="2">
+        <v>1747748336</v>
+      </c>
+      <c r="H1542" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1542" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J1542" s="4">
+        <v>45797.902037037</v>
+      </c>
+      <c r="K1542" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1542" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1542" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:13">
+      <c r="B1543" s="2">
+        <v>61603</v>
+      </c>
+      <c r="C1543" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1543" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1543" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1543" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1543" s="2">
+        <v>1747748346</v>
+      </c>
+      <c r="H1543" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1543" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1543" s="4">
+        <v>45797.9021527778</v>
+      </c>
+      <c r="K1543" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1543" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1543" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:13">
+      <c r="B1544" s="2">
+        <v>61604</v>
+      </c>
+      <c r="C1544" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1544" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1544" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1544" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1544" s="2">
+        <v>1747748356</v>
+      </c>
+      <c r="H1544" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1544" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J1544" s="4">
+        <v>45797.9022685185</v>
+      </c>
+      <c r="K1544" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1544" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1544" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:13">
+      <c r="B1545" s="2">
+        <v>61605</v>
+      </c>
+      <c r="C1545" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1545" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1545" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1545" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1545" s="2">
+        <v>1747748367</v>
+      </c>
+      <c r="H1545" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1545" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1545" s="4">
+        <v>45797.9023958333</v>
+      </c>
+      <c r="K1545" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1545" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1545" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:13">
+      <c r="B1546" s="2">
+        <v>61606</v>
+      </c>
+      <c r="C1546" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1546" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1546" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1546" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1546" s="2">
+        <v>1747748381</v>
+      </c>
+      <c r="H1546" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1546" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J1546" s="4">
+        <v>45797.9025578704</v>
+      </c>
+      <c r="K1546" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1546" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1546" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:13">
+      <c r="B1547" s="2">
+        <v>61607</v>
+      </c>
+      <c r="C1547" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1547" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1547" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1547" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1547" s="2">
+        <v>1747748613</v>
+      </c>
+      <c r="H1547" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1547" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J1547" s="4">
+        <v>45797.9052430556</v>
+      </c>
+      <c r="K1547" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1547" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1547" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:13">
+      <c r="B1548" s="2">
+        <v>61608</v>
+      </c>
+      <c r="C1548" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1548" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1548" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1548" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1548" s="2">
+        <v>1747748685</v>
+      </c>
+      <c r="H1548" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1548" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1548" s="4">
+        <v>45797.9060763889</v>
+      </c>
+      <c r="K1548" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1548" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1548" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:13">
+      <c r="B1549" s="2">
+        <v>61609</v>
+      </c>
+      <c r="C1549" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1549" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E1549" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1549" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1549" s="2">
+        <v>1747748694</v>
+      </c>
+      <c r="H1549" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1549" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1549" s="4">
+        <v>45797.9061805556</v>
+      </c>
+      <c r="K1549" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1549" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1549" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:13">
+      <c r="B1550" s="2">
+        <v>61610</v>
+      </c>
+      <c r="C1550" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1550" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1550" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1550" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1550" s="2">
+        <v>1747748797</v>
+      </c>
+      <c r="H1550" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1550" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J1550" s="4">
+        <v>45797.9073726852</v>
+      </c>
+      <c r="K1550" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1550" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1550" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:13">
+      <c r="B1551" s="2">
+        <v>61611</v>
+      </c>
+      <c r="C1551" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1551" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1551" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1551" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1551" s="2">
+        <v>1747749055</v>
+      </c>
+      <c r="H1551" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1551" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1551" s="4">
+        <v>45797.9103587963</v>
+      </c>
+      <c r="K1551" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1551" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1551" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:13">
+      <c r="B1552" s="2">
+        <v>61612</v>
+      </c>
+      <c r="C1552" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1552" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1552" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1552" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1552" s="2">
+        <v>1747749218</v>
+      </c>
+      <c r="H1552" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1552" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1552" s="4">
+        <v>45797.9122453704</v>
+      </c>
+      <c r="K1552" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1552" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1552" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:13">
+      <c r="B1553" s="2">
+        <v>64266</v>
+      </c>
+      <c r="C1553" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1553" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1553" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1553" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1553" s="2">
+        <v>1747752065</v>
+      </c>
+      <c r="H1553" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1553" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1553" s="4">
+        <v>45797.9451967593</v>
+      </c>
+      <c r="K1553" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1553" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1553" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:13">
+      <c r="B1554" s="2">
+        <v>64267</v>
+      </c>
+      <c r="C1554" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1554" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1554" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1554" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1554" s="2">
+        <v>1747752187</v>
+      </c>
+      <c r="H1554" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1554" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1554" s="4">
+        <v>45797.9466087963</v>
+      </c>
+      <c r="K1554" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1554" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1554" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:13">
+      <c r="B1555" s="2">
+        <v>64268</v>
+      </c>
+      <c r="C1555" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1555" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1555" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1555" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1555" s="2">
+        <v>1747760688</v>
+      </c>
+      <c r="H1555" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1555" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J1555" s="4">
+        <v>45798.045</v>
+      </c>
+      <c r="K1555" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1555" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1555" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:13">
+      <c r="B1556" s="2">
+        <v>64269</v>
+      </c>
+      <c r="C1556" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1556" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1556" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1556" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1556" s="2">
+        <v>1747760692</v>
+      </c>
+      <c r="H1556" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1556" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="J1556" s="4">
+        <v>45798.0450462963</v>
+      </c>
+      <c r="K1556" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1556" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1556" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:13">
+      <c r="B1557" s="2">
+        <v>64270</v>
+      </c>
+      <c r="C1557" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1557" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1557" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1557" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1557" s="2">
+        <v>1747837868</v>
+      </c>
+      <c r="H1557" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1557" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1557" s="4">
+        <v>45798.938287037</v>
+      </c>
+      <c r="K1557" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1557" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1557" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:13">
+      <c r="B1558" s="2">
+        <v>64271</v>
+      </c>
+      <c r="C1558" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1558" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1558" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1558" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1558" s="2">
+        <v>1747837883</v>
+      </c>
+      <c r="H1558" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1558" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1558" s="4">
+        <v>45798.9384606481</v>
+      </c>
+      <c r="K1558" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1558" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1558" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:13">
+      <c r="B1559" s="2">
+        <v>64272</v>
+      </c>
+      <c r="C1559" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1559" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1559" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1559" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1559" s="2">
+        <v>1747837982</v>
+      </c>
+      <c r="H1559" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1559" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J1559" s="4">
+        <v>45798.9396064815</v>
+      </c>
+      <c r="K1559" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1559" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1559" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:13">
+      <c r="B1560" s="2">
+        <v>64273</v>
+      </c>
+      <c r="C1560" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1560" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1560" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1560" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1560" s="2">
+        <v>1747838184</v>
+      </c>
+      <c r="H1560" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1560" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1560" s="4">
+        <v>45798.9419444444</v>
+      </c>
+      <c r="K1560" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1560" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1560" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:13">
+      <c r="B1561" s="2">
+        <v>64274</v>
+      </c>
+      <c r="C1561" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1561" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1561" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1561" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1561" s="2">
+        <v>1747838214</v>
+      </c>
+      <c r="H1561" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1561" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1561" s="4">
+        <v>45798.9422916667</v>
+      </c>
+      <c r="K1561" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1561" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1561" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:13">
+      <c r="B1562" s="2">
+        <v>64275</v>
+      </c>
+      <c r="C1562" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1562" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1562" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1562" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1562" s="2">
+        <v>1747838822</v>
+      </c>
+      <c r="H1562" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1562" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1562" s="4">
+        <v>45798.9493287037</v>
+      </c>
+      <c r="K1562" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1562" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1562" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:13">
+      <c r="B1563" s="2">
+        <v>64276</v>
+      </c>
+      <c r="C1563" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1563" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1563" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1563" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1563" s="2">
+        <v>1747839093</v>
+      </c>
+      <c r="H1563" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1563" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1563" s="4">
+        <v>45798.9524652778</v>
+      </c>
+      <c r="K1563" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1563" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1563" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:13">
+      <c r="B1564" s="2">
+        <v>61730</v>
+      </c>
+      <c r="C1564" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1564" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1564" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1564" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1564" s="2">
+        <v>1747924457</v>
+      </c>
+      <c r="H1564" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1564" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1564" s="4">
+        <v>45799.940474537</v>
+      </c>
+      <c r="K1564" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1564" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1564" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:13">
+      <c r="B1565" s="2">
+        <v>61731</v>
+      </c>
+      <c r="C1565" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1565" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1565" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1565" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1565" s="2">
+        <v>1747924703</v>
+      </c>
+      <c r="H1565" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1565" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J1565" s="4">
+        <v>45799.9433217593</v>
+      </c>
+      <c r="K1565" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1565" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1565" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:13">
+      <c r="B1566" s="2">
+        <v>61733</v>
+      </c>
+      <c r="C1566" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1566" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1566" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1566" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1566" s="2">
+        <v>1747924855</v>
+      </c>
+      <c r="H1566" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1566" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1566" s="4">
+        <v>45799.9450810185</v>
+      </c>
+      <c r="K1566" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1566" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1566" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:13">
+      <c r="B1567" s="2">
+        <v>61735</v>
+      </c>
+      <c r="C1567" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1567" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1567" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1567" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1567" s="2">
+        <v>1747924910</v>
+      </c>
+      <c r="H1567" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1567" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1567" s="4">
+        <v>45799.9457175926</v>
+      </c>
+      <c r="K1567" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1567" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1567" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:13">
+      <c r="B1568" s="2">
+        <v>61742</v>
+      </c>
+      <c r="C1568" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1568" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1568" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1568" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1568" s="2">
+        <v>1747926043</v>
+      </c>
+      <c r="H1568" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1568" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1568" s="4">
+        <v>45799.9588310185</v>
+      </c>
+      <c r="K1568" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1568" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1568" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:13">
+      <c r="B1569" s="2">
+        <v>61743</v>
+      </c>
+      <c r="C1569" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1569" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1569" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1569" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1569" s="2">
+        <v>1747926103</v>
+      </c>
+      <c r="H1569" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1569" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1569" s="4">
+        <v>45799.959525463</v>
+      </c>
+      <c r="K1569" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1569" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1569" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:13">
+      <c r="B1570" s="2">
+        <v>62437</v>
+      </c>
+      <c r="C1570" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1570" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1570" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1570" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1570" s="2">
+        <v>1748012034</v>
+      </c>
+      <c r="H1570" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1570" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1570" s="4">
+        <v>45800.9540972222</v>
+      </c>
+      <c r="K1570" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1570" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1570" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:13">
+      <c r="B1571" s="2">
+        <v>62441</v>
+      </c>
+      <c r="C1571" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1571" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1571" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1571" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1571" s="2">
+        <v>1748012206</v>
+      </c>
+      <c r="H1571" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1571" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1571" s="4">
+        <v>45800.956087963</v>
+      </c>
+      <c r="K1571" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1571" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1571" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1572" spans="2:13">
+      <c r="B1572" s="2">
+        <v>64277</v>
+      </c>
+      <c r="C1572" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1572" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1572" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1572" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1572" s="2">
+        <v>1748093037</v>
+      </c>
+      <c r="H1572" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1572" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1572" s="4">
+        <v>45801.8916319444</v>
+      </c>
+      <c r="K1572" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1572" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1572" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:13">
+      <c r="B1573" s="2">
+        <v>64278</v>
+      </c>
+      <c r="C1573" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1573" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1573" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1573" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1573" s="2">
+        <v>1748093057</v>
+      </c>
+      <c r="H1573" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1573" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J1573" s="4">
+        <v>45801.8918634259</v>
+      </c>
+      <c r="K1573" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1573" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1573" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:13">
+      <c r="B1574" s="2">
+        <v>64279</v>
+      </c>
+      <c r="C1574" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1574" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1574" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1574" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1574" s="2">
+        <v>1748093089</v>
+      </c>
+      <c r="H1574" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1574" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J1574" s="4">
+        <v>45801.8922337963</v>
+      </c>
+      <c r="K1574" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1574" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1574" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:13">
+      <c r="B1575" s="2">
+        <v>64280</v>
+      </c>
+      <c r="C1575" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1575" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1575" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1575" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1575" s="2">
+        <v>1748093096</v>
+      </c>
+      <c r="H1575" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1575" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1575" s="4">
+        <v>45801.8923148148</v>
+      </c>
+      <c r="K1575" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1575" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1575" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1576" spans="2:13">
+      <c r="B1576" s="2">
+        <v>64281</v>
+      </c>
+      <c r="C1576" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1576" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1576" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1576" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1576" s="2">
+        <v>1748093526</v>
+      </c>
+      <c r="H1576" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1576" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="J1576" s="4">
+        <v>45801.8972916667</v>
+      </c>
+      <c r="K1576" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1576" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1576" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:13">
+      <c r="B1577" s="2">
+        <v>64282</v>
+      </c>
+      <c r="C1577" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1577" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1577" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1577" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1577" s="2">
+        <v>1748093702</v>
+      </c>
+      <c r="H1577" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1577" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="J1577" s="4">
+        <v>45801.8993287037</v>
+      </c>
+      <c r="K1577" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1577" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1577" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:13">
+      <c r="B1578" s="2">
+        <v>64283</v>
+      </c>
+      <c r="C1578" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1578" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1578" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1578" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1578" s="2">
+        <v>1748095293</v>
+      </c>
+      <c r="H1578" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1578" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1578" s="4">
+        <v>45801.9177430556</v>
+      </c>
+      <c r="K1578" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1578" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1578" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:13">
+      <c r="B1579" s="2">
+        <v>64284</v>
+      </c>
+      <c r="C1579" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1579" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1579" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1579" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1579" s="2">
+        <v>1748096747</v>
+      </c>
+      <c r="H1579" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1579" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1579" s="4">
+        <v>45801.9345717593</v>
+      </c>
+      <c r="K1579" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1579" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1579" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:13">
+      <c r="B1580" s="2">
+        <v>64285</v>
+      </c>
+      <c r="C1580" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1580" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1580" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1580" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1580" s="2">
+        <v>1748097520</v>
+      </c>
+      <c r="H1580" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1580" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1580" s="4">
+        <v>45801.9435185185</v>
+      </c>
+      <c r="K1580" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1580" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1580" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:13">
+      <c r="B1581" s="2">
+        <v>64286</v>
+      </c>
+      <c r="C1581" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1581" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E1581" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1581" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1581" s="2">
+        <v>1748097542</v>
+      </c>
+      <c r="H1581" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1581" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J1581" s="4">
+        <v>45801.9437731481</v>
+      </c>
+      <c r="K1581" s="2"/>
+      <c r="L1581" s="2"/>
+      <c r="M1581" s="2"/>
+    </row>
+    <row r="1582" spans="2:13">
+      <c r="B1582" s="2">
+        <v>64287</v>
+      </c>
+      <c r="C1582" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1582" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1582" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1582" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1582" s="2">
+        <v>1748097613</v>
+      </c>
+      <c r="H1582" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1582" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J1582" s="4">
+        <v>45801.9445949074</v>
+      </c>
+      <c r="K1582" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1582" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1582" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:13">
+      <c r="B1583" s="2">
+        <v>64288</v>
+      </c>
+      <c r="C1583" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1583" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1583" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1583" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1583" s="2">
+        <v>1748098568</v>
+      </c>
+      <c r="H1583" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1583" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J1583" s="4">
+        <v>45801.9556481481</v>
+      </c>
+      <c r="K1583" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1583" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1583" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:13">
+      <c r="B1584" s="2">
+        <v>64289</v>
+      </c>
+      <c r="C1584" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1584" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1584" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1584" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1584" s="2">
+        <v>1748098571</v>
+      </c>
+      <c r="H1584" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1584" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1584" s="4">
+        <v>45801.9556828704</v>
+      </c>
+      <c r="K1584" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1584" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1584" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1585" spans="2:13">
+      <c r="B1585" s="2">
+        <v>64290</v>
+      </c>
+      <c r="C1585" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1585" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1585" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1585" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1585" s="2">
+        <v>1748100597</v>
+      </c>
+      <c r="H1585" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1585" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J1585" s="4">
+        <v>45801.9791319444</v>
+      </c>
+      <c r="K1585" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1585" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1585" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1586" spans="2:13">
+      <c r="B1586" s="2">
+        <v>64291</v>
+      </c>
+      <c r="C1586" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1586" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1586" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1586" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1586" s="2">
+        <v>1748100600</v>
+      </c>
+      <c r="H1586" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1586" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1586" s="4">
+        <v>45801.9791666667</v>
+      </c>
+      <c r="K1586" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1586" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1586" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1587" spans="2:13">
+      <c r="B1587" s="2">
+        <v>64292</v>
+      </c>
+      <c r="C1587" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1587" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1587" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1587" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1587" s="2">
+        <v>1748180376</v>
+      </c>
+      <c r="H1587" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1587" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1587" s="4">
+        <v>45802.9025</v>
+      </c>
+      <c r="K1587" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1587" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1587" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1588" spans="2:13">
+      <c r="B1588" s="2">
+        <v>64293</v>
+      </c>
+      <c r="C1588" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1588" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1588" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1588" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1588" s="2">
+        <v>1748183414</v>
+      </c>
+      <c r="H1588" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1588" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1588" s="4">
+        <v>45802.937662037</v>
+      </c>
+      <c r="K1588" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1588" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1588" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1589" spans="2:13">
+      <c r="B1589" s="2">
+        <v>64294</v>
+      </c>
+      <c r="C1589" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1589" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1589" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1589" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1589" s="2">
+        <v>1748183438</v>
+      </c>
+      <c r="H1589" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1589" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1589" s="4">
+        <v>45802.9379398148</v>
+      </c>
+      <c r="K1589" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1589" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1589" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1590" spans="2:13">
+      <c r="B1590" s="2">
+        <v>64295</v>
+      </c>
+      <c r="C1590" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1590" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1590" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1590" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1590" s="2">
+        <v>1748184044</v>
+      </c>
+      <c r="H1590" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1590" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1590" s="4">
+        <v>45802.9449537037</v>
+      </c>
+      <c r="K1590" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1590" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1590" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1591" spans="2:13">
+      <c r="B1591" s="2">
+        <v>64296</v>
+      </c>
+      <c r="C1591" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1591" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1591" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1591" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1591" s="2">
+        <v>1748184139</v>
+      </c>
+      <c r="H1591" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1591" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1591" s="4">
+        <v>45802.9460532407</v>
+      </c>
+      <c r="K1591" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1591" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1591" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1592" spans="2:13">
+      <c r="B1592" s="2">
+        <v>64297</v>
+      </c>
+      <c r="C1592" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1592" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1592" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1592" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1592" s="2">
+        <v>1748221390</v>
+      </c>
+      <c r="H1592" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1592" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J1592" s="4">
+        <v>45803.3771990741</v>
+      </c>
+      <c r="K1592" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1592" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1592" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1593" spans="2:13">
+      <c r="B1593" s="2">
+        <v>64298</v>
+      </c>
+      <c r="C1593" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1593" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E1593" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1593" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1593" s="2">
+        <v>1748267119</v>
+      </c>
+      <c r="H1593" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1593" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J1593" s="4">
+        <v>45803.9064699074</v>
+      </c>
+      <c r="K1593" s="2"/>
+      <c r="L1593" s="2"/>
+      <c r="M1593" s="2"/>
+    </row>
+    <row r="1594" spans="2:13">
+      <c r="B1594" s="2">
+        <v>64299</v>
+      </c>
+      <c r="C1594" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1594" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1594" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1594" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1594" s="2">
+        <v>1748267135</v>
+      </c>
+      <c r="H1594" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1594" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J1594" s="4">
+        <v>45803.9066550926</v>
+      </c>
+      <c r="K1594" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1594" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1594" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1595" spans="2:13">
+      <c r="B1595" s="2">
+        <v>64300</v>
+      </c>
+      <c r="C1595" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1595" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1595" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1595" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1595" s="2">
+        <v>1748267249</v>
+      </c>
+      <c r="H1595" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1595" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1595" s="4">
+        <v>45803.907974537</v>
+      </c>
+      <c r="K1595" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1595" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1595" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1596" spans="2:13">
+      <c r="B1596" s="2">
+        <v>64301</v>
+      </c>
+      <c r="C1596" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1596" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1596" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1596" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1596" s="2">
+        <v>1748267263</v>
+      </c>
+      <c r="H1596" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1596" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1596" s="4">
+        <v>45803.9081365741</v>
+      </c>
+      <c r="K1596" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1596" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1596" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1597" spans="2:13">
+      <c r="B1597" s="2">
+        <v>64302</v>
+      </c>
+      <c r="C1597" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1597" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1597" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1597" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1597" s="2">
+        <v>1748267350</v>
+      </c>
+      <c r="H1597" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1597" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1597" s="4">
+        <v>45803.9091435185</v>
+      </c>
+      <c r="K1597" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1597" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1597" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1598" spans="2:13">
+      <c r="B1598" s="2">
+        <v>64303</v>
+      </c>
+      <c r="C1598" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1598" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1598" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1598" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1598" s="2">
+        <v>1748267363</v>
+      </c>
+      <c r="H1598" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1598" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1598" s="4">
+        <v>45803.9092939815</v>
+      </c>
+      <c r="K1598" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1598" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1598" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1599" spans="2:13">
+      <c r="B1599" s="2">
+        <v>64304</v>
+      </c>
+      <c r="C1599" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1599" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1599" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1599" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1599" s="2">
+        <v>1748267365</v>
+      </c>
+      <c r="H1599" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1599" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1599" s="4">
+        <v>45803.9093171296</v>
+      </c>
+      <c r="K1599" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1599" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1599" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1600" spans="2:13">
+      <c r="B1600" s="2">
+        <v>64305</v>
+      </c>
+      <c r="C1600" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1600" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1600" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1600" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1600" s="2">
+        <v>1748267784</v>
+      </c>
+      <c r="H1600" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1600" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1600" s="4">
+        <v>45803.9141666667</v>
+      </c>
+      <c r="K1600" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1600" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1600" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:13">
+      <c r="B1601" s="2">
+        <v>64306</v>
+      </c>
+      <c r="C1601" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1601" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1601" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1601" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1601" s="2">
+        <v>1748272331</v>
+      </c>
+      <c r="H1601" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1601" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1601" s="4">
+        <v>45803.9667939815</v>
+      </c>
+      <c r="K1601" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1601" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1601" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1602" spans="2:13">
+      <c r="B1602" s="2">
+        <v>64307</v>
+      </c>
+      <c r="C1602" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1602" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1602" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1602" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1602" s="2">
+        <v>1748352703</v>
+      </c>
+      <c r="H1602" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1602" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1602" s="4">
+        <v>45804.897025463</v>
+      </c>
+      <c r="K1602" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1602" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1602" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1603" spans="2:13">
+      <c r="B1603" s="2">
+        <v>64308</v>
+      </c>
+      <c r="C1603" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1603" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1603" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1603" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1603" s="2">
+        <v>1748352713</v>
+      </c>
+      <c r="H1603" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1603" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1603" s="4">
+        <v>45804.8971412037</v>
+      </c>
+      <c r="K1603" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1603" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1603" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1604" spans="2:13">
+      <c r="B1604" s="2">
+        <v>64309</v>
+      </c>
+      <c r="C1604" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1604" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1604" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1604" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1604" s="2">
+        <v>1748352729</v>
+      </c>
+      <c r="H1604" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1604" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1604" s="4">
+        <v>45804.8973263889</v>
+      </c>
+      <c r="K1604" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1604" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1604" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1605" spans="2:13">
+      <c r="B1605" s="2">
+        <v>64310</v>
+      </c>
+      <c r="C1605" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1605" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1605" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1605" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1605" s="2">
+        <v>1748353861</v>
+      </c>
+      <c r="H1605" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1605" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J1605" s="4">
+        <v>45804.9104282407</v>
+      </c>
+      <c r="K1605" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1605" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1605" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1606" spans="2:13">
+      <c r="B1606" s="2">
+        <v>64311</v>
+      </c>
+      <c r="C1606" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1606" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1606" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1606" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1606" s="2">
+        <v>1748356049</v>
+      </c>
+      <c r="H1606" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1606" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1606" s="4">
+        <v>45804.9357523148</v>
+      </c>
+      <c r="K1606" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1606" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1606" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1607" spans="2:13">
+      <c r="B1607" s="2">
+        <v>64312</v>
+      </c>
+      <c r="C1607" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1607" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1607" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1607" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1607" s="2">
+        <v>1748356118</v>
+      </c>
+      <c r="H1607" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1607" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1607" s="4">
+        <v>45804.9365509259</v>
+      </c>
+      <c r="K1607" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1607" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1607" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1608" spans="2:13">
+      <c r="B1608" s="2">
+        <v>64313</v>
+      </c>
+      <c r="C1608" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1608" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1608" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1608" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1608" s="2">
+        <v>1748356199</v>
+      </c>
+      <c r="H1608" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1608" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1608" s="4">
+        <v>45804.9374884259</v>
+      </c>
+      <c r="K1608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1608" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1608" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1609" spans="2:13">
+      <c r="B1609" s="2">
+        <v>64314</v>
+      </c>
+      <c r="C1609" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1609" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1609" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1609" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1609" s="2">
+        <v>1748356214</v>
+      </c>
+      <c r="H1609" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1609" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1609" s="4">
+        <v>45804.937662037</v>
+      </c>
+      <c r="K1609" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1609" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1609" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1610" spans="2:13">
+      <c r="B1610" s="2">
+        <v>64315</v>
+      </c>
+      <c r="C1610" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1610" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1610" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1610" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1610" s="2">
+        <v>1748356459</v>
+      </c>
+      <c r="H1610" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1610" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1610" s="4">
+        <v>45804.9404976852</v>
+      </c>
+      <c r="K1610" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1610" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1610" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1611" spans="2:13">
+      <c r="B1611" s="2">
+        <v>64316</v>
+      </c>
+      <c r="C1611" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1611" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1611" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1611" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1611" s="2">
+        <v>1748396098</v>
+      </c>
+      <c r="H1611" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1611" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J1611" s="4">
+        <v>45805.3992824074</v>
+      </c>
+      <c r="K1611" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1611" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1611" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1612" spans="2:13">
+      <c r="B1612" s="2">
+        <v>64317</v>
+      </c>
+      <c r="C1612" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1612" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1612" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1612" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1612" s="2">
+        <v>1748440824</v>
+      </c>
+      <c r="H1612" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1612" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1612" s="4">
+        <v>45805.9169444444</v>
+      </c>
+      <c r="K1612" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1612" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1612" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1613" spans="2:13">
+      <c r="B1613" s="2">
+        <v>64318</v>
+      </c>
+      <c r="C1613" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1613" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1613" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1613" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1613" s="2">
+        <v>1748440840</v>
+      </c>
+      <c r="H1613" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1613" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="J1613" s="4">
+        <v>45805.9171296296</v>
+      </c>
+      <c r="K1613" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1613" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1613" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1614" spans="2:13">
+      <c r="B1614" s="2">
+        <v>64319</v>
+      </c>
+      <c r="C1614" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1614" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1614" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1614" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1614" s="2">
+        <v>1748441548</v>
+      </c>
+      <c r="H1614" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1614" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1614" s="4">
+        <v>45805.9253240741</v>
+      </c>
+      <c r="K1614" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1614" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1614" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1615" spans="2:13">
+      <c r="B1615" s="2">
+        <v>64320</v>
+      </c>
+      <c r="C1615" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1615" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1615" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1615" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1615" s="2">
+        <v>1748442046</v>
+      </c>
+      <c r="H1615" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1615" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1615" s="4">
+        <v>45805.931087963</v>
+      </c>
+      <c r="K1615" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1615" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1615" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1616" spans="2:13">
+      <c r="B1616" s="2">
+        <v>64321</v>
+      </c>
+      <c r="C1616" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1616" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1616" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1616" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1616" s="2">
+        <v>1748442102</v>
+      </c>
+      <c r="H1616" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1616" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1616" s="4">
+        <v>45805.9317361111</v>
+      </c>
+      <c r="K1616" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1616" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1616" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1617" spans="2:13">
+      <c r="B1617" s="2">
+        <v>64322</v>
+      </c>
+      <c r="C1617" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1617" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1617" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1617" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1617" s="2">
+        <v>1748442544</v>
+      </c>
+      <c r="H1617" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1617" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1617" s="4">
+        <v>45805.9368518519</v>
+      </c>
+      <c r="K1617" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1617" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1617" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1618" spans="2:13">
+      <c r="B1618" s="2">
+        <v>64323</v>
+      </c>
+      <c r="C1618" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1618" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1618" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1618" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1618" s="2">
+        <v>1748442559</v>
+      </c>
+      <c r="H1618" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1618" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1618" s="4">
+        <v>45805.937025463</v>
+      </c>
+      <c r="K1618" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1618" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1618" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1619" spans="2:13">
+      <c r="B1619" s="2">
+        <v>64324</v>
+      </c>
+      <c r="C1619" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1619" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1619" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1619" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1619" s="2">
+        <v>1748442569</v>
+      </c>
+      <c r="H1619" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1619" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1619" s="4">
+        <v>45805.9371412037</v>
+      </c>
+      <c r="K1619" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1619" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1619" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1620" spans="2:13">
+      <c r="B1620" s="2">
+        <v>64325</v>
+      </c>
+      <c r="C1620" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1620" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1620" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1620" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1620" s="2">
+        <v>1748442599</v>
+      </c>
+      <c r="H1620" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1620" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1620" s="4">
+        <v>45805.9374884259</v>
+      </c>
+      <c r="K1620" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1620" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1620" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1621" spans="2:13">
+      <c r="B1621" s="2">
+        <v>64326</v>
+      </c>
+      <c r="C1621" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1621" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1621" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1621" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1621" s="2">
+        <v>1748443043</v>
+      </c>
+      <c r="H1621" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1621" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1621" s="4">
+        <v>45805.9426273148</v>
+      </c>
+      <c r="K1621" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1621" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1621" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1622" spans="2:13">
+      <c r="B1622" s="2">
+        <v>64327</v>
+      </c>
+      <c r="C1622" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1622" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1622" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1622" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1622" s="2">
+        <v>1748443057</v>
+      </c>
+      <c r="H1622" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1622" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1622" s="4">
+        <v>45805.9427893519</v>
+      </c>
+      <c r="K1622" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1622" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1622" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1623" spans="2:13">
+      <c r="B1623" s="2">
+        <v>64328</v>
+      </c>
+      <c r="C1623" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1623" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1623" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1623" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1623" s="2">
+        <v>1748528881</v>
+      </c>
+      <c r="H1623" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1623" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1623" s="4">
+        <v>45806.9361226852</v>
+      </c>
+      <c r="K1623" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1623" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1623" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1624" spans="2:13">
+      <c r="B1624" s="2">
+        <v>64329</v>
+      </c>
+      <c r="C1624" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1624" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1624" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1624" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1624" s="2">
+        <v>1748528935</v>
+      </c>
+      <c r="H1624" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1624" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1624" s="4">
+        <v>45806.9367476852</v>
+      </c>
+      <c r="K1624" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1624" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1624" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1625" spans="2:13">
+      <c r="B1625" s="2">
+        <v>64330</v>
+      </c>
+      <c r="C1625" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1625" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1625" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1625" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1625" s="2">
+        <v>1748529349</v>
+      </c>
+      <c r="H1625" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1625" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1625" s="4">
+        <v>45806.9415393519</v>
+      </c>
+      <c r="K1625" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1625" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1625" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1626" spans="2:13">
+      <c r="B1626" s="2">
+        <v>64331</v>
+      </c>
+      <c r="C1626" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1626" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1626" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1626" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1626" s="2">
+        <v>1748529730</v>
+      </c>
+      <c r="H1626" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1626" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1626" s="4">
+        <v>45806.9459490741</v>
+      </c>
+      <c r="K1626" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1626" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1626" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1627" spans="2:13">
+      <c r="B1627" s="2">
+        <v>64332</v>
+      </c>
+      <c r="C1627" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1627" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1627" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1627" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1627" s="2">
+        <v>1748529831</v>
+      </c>
+      <c r="H1627" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1627" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1627" s="4">
+        <v>45806.9471180556</v>
+      </c>
+      <c r="K1627" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1627" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1627" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1628" spans="2:13">
+      <c r="B1628" s="2">
+        <v>64333</v>
+      </c>
+      <c r="C1628" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1628" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1628" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1628" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1628" s="2">
+        <v>1748529891</v>
+      </c>
+      <c r="H1628" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1628" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1628" s="4">
+        <v>45806.9478125</v>
+      </c>
+      <c r="K1628" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1628" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1628" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1629" spans="2:13">
+      <c r="B1629" s="2">
+        <v>64334</v>
+      </c>
+      <c r="C1629" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1629" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1629" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1629" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1629" s="2">
+        <v>1748530322</v>
+      </c>
+      <c r="H1629" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1629" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1629" s="4">
+        <v>45806.9528009259</v>
+      </c>
+      <c r="K1629" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1629" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1629" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1630" spans="2:13">
+      <c r="B1630" s="2">
+        <v>64335</v>
+      </c>
+      <c r="C1630" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1630" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1630" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1630" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1630" s="2">
+        <v>1748530469</v>
+      </c>
+      <c r="H1630" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1630" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J1630" s="4">
+        <v>45806.9545023148</v>
+      </c>
+      <c r="K1630" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1630" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1630" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1631" spans="2:13">
+      <c r="B1631" s="2">
+        <v>64336</v>
+      </c>
+      <c r="C1631" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1631" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1631" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1631" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1631" s="2">
+        <v>1748530499</v>
+      </c>
+      <c r="H1631" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1631" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J1631" s="4">
+        <v>45806.954849537</v>
+      </c>
+      <c r="K1631" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1631" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1631" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1632" spans="2:13">
+      <c r="B1632" s="2">
+        <v>64337</v>
+      </c>
+      <c r="C1632" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1632" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1632" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1632" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1632" s="2">
+        <v>1748612373</v>
+      </c>
+      <c r="H1632" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1632" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1632" s="4">
+        <v>45807.9024652778</v>
+      </c>
+      <c r="K1632" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1632" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1632" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1633" spans="2:13">
+      <c r="B1633" s="2">
+        <v>64338</v>
+      </c>
+      <c r="C1633" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1633" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1633" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1633" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1633" s="2">
+        <v>1748612418</v>
+      </c>
+      <c r="H1633" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1633" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1633" s="4">
+        <v>45807.9029861111</v>
+      </c>
+      <c r="K1633" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1633" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1633" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1634" spans="2:13">
+      <c r="B1634" s="2">
+        <v>64339</v>
+      </c>
+      <c r="C1634" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1634" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1634" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1634" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1634" s="2">
+        <v>1748612452</v>
+      </c>
+      <c r="H1634" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1634" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1634" s="4">
+        <v>45807.9033796296</v>
+      </c>
+      <c r="K1634" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1634" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1634" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1635" spans="2:13">
+      <c r="B1635" s="2">
+        <v>64340</v>
+      </c>
+      <c r="C1635" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1635" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1635" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1635" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1635" s="2">
+        <v>1748612677</v>
+      </c>
+      <c r="H1635" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1635" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1635" s="4">
+        <v>45807.9059837963</v>
+      </c>
+      <c r="K1635" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1635" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1635" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1636" spans="2:13">
+      <c r="B1636" s="2">
+        <v>62792</v>
+      </c>
+      <c r="C1636" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1636" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1636" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1636" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1636" s="2">
+        <v>1748702450</v>
+      </c>
+      <c r="H1636" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1636" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1636" s="4">
+        <v>45808.9450231481</v>
+      </c>
+      <c r="K1636" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1636" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1636" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1637" spans="2:13">
+      <c r="B1637" s="2">
+        <v>62793</v>
+      </c>
+      <c r="C1637" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1637" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1637" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1637" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1637" s="2">
+        <v>1748702458</v>
+      </c>
+      <c r="H1637" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1637" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1637" s="4">
+        <v>45808.9451157407</v>
+      </c>
+      <c r="K1637" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1637" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1637" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1638" spans="2:13">
+      <c r="B1638" s="2">
+        <v>62794</v>
+      </c>
+      <c r="C1638" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1638" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1638" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1638" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1638" s="2">
+        <v>1748702475</v>
+      </c>
+      <c r="H1638" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1638" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1638" s="4">
+        <v>45808.9453125</v>
+      </c>
+      <c r="K1638" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1638" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1638" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1639" spans="2:13">
+      <c r="B1639" s="2">
+        <v>62795</v>
+      </c>
+      <c r="C1639" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1639" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1639" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1639" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1639" s="2">
+        <v>1748703027</v>
+      </c>
+      <c r="H1639" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1639" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1639" s="4">
+        <v>45808.9517013889</v>
+      </c>
+      <c r="K1639" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1639" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1639" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1640" spans="2:13">
+      <c r="B1640" s="2">
+        <v>62796</v>
+      </c>
+      <c r="C1640" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1640" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1640" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1640" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1640" s="2">
+        <v>1748703196</v>
+      </c>
+      <c r="H1640" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1640" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1640" s="4">
+        <v>45808.9536574074</v>
+      </c>
+      <c r="K1640" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1640" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1640" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1641" spans="2:13">
+      <c r="B1641" s="2">
+        <v>62797</v>
+      </c>
+      <c r="C1641" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1641" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1641" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1641" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1641" s="2">
+        <v>1748787663</v>
+      </c>
+      <c r="H1641" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1641" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1641" s="4">
+        <v>45809.9312847222</v>
+      </c>
+      <c r="K1641" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1641" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1641" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1642" spans="2:13">
+      <c r="B1642" s="2">
+        <v>62798</v>
+      </c>
+      <c r="C1642" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1642" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1642" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1642" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1642" s="2">
+        <v>1748787832</v>
+      </c>
+      <c r="H1642" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1642" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1642" s="4">
+        <v>45809.9332407407</v>
+      </c>
+      <c r="K1642" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1642" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1642" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1643" spans="2:13">
+      <c r="B1643" s="2">
+        <v>62799</v>
+      </c>
+      <c r="C1643" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1643" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1643" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1643" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1643" s="2">
+        <v>1748791995</v>
+      </c>
+      <c r="H1643" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1643" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1643" s="4">
+        <v>45809.9814236111</v>
+      </c>
+      <c r="K1643" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1643" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1643" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1644" spans="2:13">
+      <c r="B1644" s="2">
+        <v>62750</v>
+      </c>
+      <c r="C1644" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1644" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1644" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1644" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1644" s="2">
+        <v>1748869354</v>
+      </c>
+      <c r="H1644" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1644" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1644" s="4">
+        <v>45810.8767824074</v>
+      </c>
+      <c r="K1644" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1644" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1644" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1645" spans="2:13">
+      <c r="B1645" s="2">
+        <v>62751</v>
+      </c>
+      <c r="C1645" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1645" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1645" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1645" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1645" s="2">
+        <v>1748869365</v>
+      </c>
+      <c r="H1645" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1645" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1645" s="4">
+        <v>45810.8769097222</v>
+      </c>
+      <c r="K1645" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1645" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1645" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1646" spans="2:13">
+      <c r="B1646" s="2">
+        <v>62752</v>
+      </c>
+      <c r="C1646" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1646" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1646" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1646" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1646" s="2">
+        <v>1748869379</v>
+      </c>
+      <c r="H1646" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1646" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J1646" s="4">
+        <v>45810.8770717593</v>
+      </c>
+      <c r="K1646" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1646" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1646" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1647" spans="2:13">
+      <c r="B1647" s="2">
+        <v>62753</v>
+      </c>
+      <c r="C1647" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1647" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1647" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1647" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1647" s="2">
+        <v>1748869389</v>
+      </c>
+      <c r="H1647" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1647" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J1647" s="4">
+        <v>45810.8771875</v>
+      </c>
+      <c r="K1647" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1647" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1647" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1648" spans="2:13">
+      <c r="B1648" s="2">
+        <v>62754</v>
+      </c>
+      <c r="C1648" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1648" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1648" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1648" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1648" s="2">
+        <v>1748869395</v>
+      </c>
+      <c r="H1648" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1648" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1648" s="4">
+        <v>45810.8772569444</v>
+      </c>
+      <c r="K1648" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1648" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1648" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1649" spans="2:13">
+      <c r="B1649" s="2">
+        <v>62755</v>
+      </c>
+      <c r="C1649" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1649" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1649" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1649" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1649" s="2">
+        <v>1748869437</v>
+      </c>
+      <c r="H1649" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1649" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1649" s="4">
+        <v>45810.8777430556</v>
+      </c>
+      <c r="K1649" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1649" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1649" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:13">
+      <c r="B1650" s="2">
+        <v>62756</v>
+      </c>
+      <c r="C1650" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1650" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1650" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1650" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1650" s="2">
+        <v>1748871636</v>
+      </c>
+      <c r="H1650" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1650" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1650" s="4">
+        <v>45810.9031944444</v>
+      </c>
+      <c r="K1650" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1650" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1650" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:13">
+      <c r="B1651" s="2">
+        <v>64341</v>
+      </c>
+      <c r="C1651" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1651" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1651" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1651" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1651" s="2">
+        <v>1748960178</v>
+      </c>
+      <c r="H1651" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1651" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1651" s="4">
+        <v>45811.9279861111</v>
+      </c>
+      <c r="K1651" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1651" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1651" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:13">
+      <c r="B1652" s="2">
+        <v>64342</v>
+      </c>
+      <c r="C1652" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1652" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1652" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1652" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1652" s="2">
+        <v>1748960836</v>
+      </c>
+      <c r="H1652" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1652" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1652" s="4">
+        <v>45811.9356018519</v>
+      </c>
+      <c r="K1652" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1652" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1652" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:13">
+      <c r="B1653" s="2">
+        <v>64343</v>
+      </c>
+      <c r="C1653" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1653" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1653" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1653" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1653" s="2">
+        <v>1748961175</v>
+      </c>
+      <c r="H1653" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1653" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1653" s="4">
+        <v>45811.939525463</v>
+      </c>
+      <c r="K1653" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1653" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1653" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1654" spans="2:13">
+      <c r="B1654" s="2">
+        <v>64344</v>
+      </c>
+      <c r="C1654" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1654" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1654" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1654" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1654" s="2">
+        <v>1748961589</v>
+      </c>
+      <c r="H1654" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1654" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1654" s="4">
+        <v>45811.9443171296</v>
+      </c>
+      <c r="K1654" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1654" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1654" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:13">
+      <c r="B1655" s="2">
+        <v>64345</v>
+      </c>
+      <c r="C1655" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1655" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1655" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1655" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1655" s="2">
+        <v>1748961807</v>
+      </c>
+      <c r="H1655" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1655" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1655" s="4">
+        <v>45811.9468402778</v>
+      </c>
+      <c r="K1655" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1655" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1655" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:13">
+      <c r="B1656" s="2">
+        <v>64346</v>
+      </c>
+      <c r="C1656" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1656" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1656" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1656" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1656" s="2">
+        <v>1748961863</v>
+      </c>
+      <c r="H1656" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1656" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1656" s="4">
+        <v>45811.9474884259</v>
+      </c>
+      <c r="K1656" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1656" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1656" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:13">
+      <c r="B1657" s="2">
+        <v>64347</v>
+      </c>
+      <c r="C1657" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1657" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1657" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1657" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1657" s="2">
+        <v>1748961917</v>
+      </c>
+      <c r="H1657" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1657" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1657" s="4">
+        <v>45811.9481134259</v>
+      </c>
+      <c r="K1657" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1657" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1657" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:13">
+      <c r="B1658" s="2">
+        <v>64348</v>
+      </c>
+      <c r="C1658" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1658" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1658" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1658" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1658" s="2">
+        <v>1748961966</v>
+      </c>
+      <c r="H1658" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1658" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1658" s="4">
+        <v>45811.9486805556</v>
+      </c>
+      <c r="K1658" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1658" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1658" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1659" spans="2:13">
+      <c r="B1659" s="2">
+        <v>64349</v>
+      </c>
+      <c r="C1659" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1659" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1659" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1659" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1659" s="2">
+        <v>1748961993</v>
+      </c>
+      <c r="H1659" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1659" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1659" s="4">
+        <v>45811.9489930556</v>
+      </c>
+      <c r="K1659" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1659" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1659" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:13">
+      <c r="B1660" s="2">
+        <v>64350</v>
+      </c>
+      <c r="C1660" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1660" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1660" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1660" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1660" s="2">
+        <v>1749046354</v>
+      </c>
+      <c r="H1660" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1660" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J1660" s="4">
+        <v>45812.9253935185</v>
+      </c>
+      <c r="K1660" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1660" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1660" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:13">
+      <c r="B1661" s="2">
+        <v>64351</v>
+      </c>
+      <c r="C1661" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1661" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1661" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1661" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1661" s="2">
+        <v>1749047080</v>
+      </c>
+      <c r="H1661" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1661" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1661" s="4">
+        <v>45812.9337962963</v>
+      </c>
+      <c r="K1661" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1661" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1661" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1662" spans="2:13">
+      <c r="B1662" s="2">
+        <v>64352</v>
+      </c>
+      <c r="C1662" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1662" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1662" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1662" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1662" s="2">
+        <v>1749047158</v>
+      </c>
+      <c r="H1662" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1662" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1662" s="4">
+        <v>45812.9346990741</v>
+      </c>
+      <c r="K1662" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1662" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1662" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:13">
+      <c r="B1663" s="2">
+        <v>64353</v>
+      </c>
+      <c r="C1663" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1663" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1663" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1663" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1663" s="2">
+        <v>1749047704</v>
+      </c>
+      <c r="H1663" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1663" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1663" s="4">
+        <v>45812.9410185185</v>
+      </c>
+      <c r="K1663" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1663" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1663" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:13">
+      <c r="B1664" s="2">
+        <v>63658</v>
+      </c>
+      <c r="C1664" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1664" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1664" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1664" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1664" s="2">
+        <v>1749047715</v>
+      </c>
+      <c r="H1664" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1664" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1664" s="4">
+        <v>45812.9411458333</v>
+      </c>
+      <c r="K1664" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1664" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1664" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:13">
+      <c r="B1665" s="2">
+        <v>63659</v>
+      </c>
+      <c r="C1665" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1665" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1665" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1665" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1665" s="2">
+        <v>1749047718</v>
+      </c>
+      <c r="H1665" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1665" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1665" s="4">
+        <v>45812.9411805556</v>
+      </c>
+      <c r="K1665" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1665" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1665" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:13">
+      <c r="B1666" s="2">
+        <v>63660</v>
+      </c>
+      <c r="C1666" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1666" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1666" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1666" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1666" s="2">
+        <v>1749047853</v>
+      </c>
+      <c r="H1666" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1666" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1666" s="4">
+        <v>45812.9427430556</v>
+      </c>
+      <c r="K1666" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1666" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1666" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:13">
+      <c r="B1667" s="2">
+        <v>63661</v>
+      </c>
+      <c r="C1667" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1667" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1667" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1667" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1667" s="2">
+        <v>1749047863</v>
+      </c>
+      <c r="H1667" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1667" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1667" s="4">
+        <v>45812.9428587963</v>
+      </c>
+      <c r="K1667" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1667" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1667" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:13">
+      <c r="B1668" s="2">
+        <v>63662</v>
+      </c>
+      <c r="C1668" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1668" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1668" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1668" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1668" s="2">
+        <v>1749133023</v>
+      </c>
+      <c r="H1668" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1668" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1668" s="4">
+        <v>45813.9285069444</v>
+      </c>
+      <c r="K1668" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1668" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1668" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:13">
+      <c r="B1669" s="2">
+        <v>63663</v>
+      </c>
+      <c r="C1669" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1669" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1669" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1669" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1669" s="2">
+        <v>1749133046</v>
+      </c>
+      <c r="H1669" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1669" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J1669" s="4">
+        <v>45813.9287731481</v>
+      </c>
+      <c r="K1669" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1669" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1669" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:13">
+      <c r="B1670" s="2">
+        <v>63664</v>
+      </c>
+      <c r="C1670" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1670" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1670" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1670" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1670" s="2">
+        <v>1749133050</v>
+      </c>
+      <c r="H1670" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1670" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1670" s="4">
+        <v>45813.9288194444</v>
+      </c>
+      <c r="K1670" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1670" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1670" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:13">
+      <c r="B1671" s="2">
+        <v>63665</v>
+      </c>
+      <c r="C1671" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1671" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1671" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1671" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1671" s="2">
+        <v>1749133050</v>
+      </c>
+      <c r="H1671" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1671" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1671" s="4">
+        <v>45813.9288194444</v>
+      </c>
+      <c r="K1671" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1671" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1671" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:13">
+      <c r="B1672" s="2">
+        <v>63666</v>
+      </c>
+      <c r="C1672" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1672" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1672" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1672" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1672" s="2">
+        <v>1749133058</v>
+      </c>
+      <c r="H1672" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1672" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J1672" s="4">
+        <v>45813.928912037</v>
+      </c>
+      <c r="K1672" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1672" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1672" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:13">
+      <c r="B1673" s="2">
+        <v>63667</v>
+      </c>
+      <c r="C1673" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1673" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1673" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1673" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1673" s="2">
+        <v>1749133060</v>
+      </c>
+      <c r="H1673" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1673" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="J1673" s="4">
+        <v>45813.9289351852</v>
+      </c>
+      <c r="K1673" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1673" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1673" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:13">
+      <c r="B1674" s="2">
+        <v>63668</v>
+      </c>
+      <c r="C1674" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1674" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1674" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1674" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1674" s="2">
+        <v>1749133078</v>
+      </c>
+      <c r="H1674" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1674" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1674" s="4">
+        <v>45813.9291435185</v>
+      </c>
+      <c r="K1674" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1674" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1674" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:13">
+      <c r="B1675" s="2">
+        <v>63669</v>
+      </c>
+      <c r="C1675" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1675" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1675" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1675" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1675" s="2">
+        <v>1749133154</v>
+      </c>
+      <c r="H1675" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1675" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1675" s="4">
+        <v>45813.9300231481</v>
+      </c>
+      <c r="K1675" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1675" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1675" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:13">
+      <c r="B1676" s="2">
+        <v>63670</v>
+      </c>
+      <c r="C1676" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1676" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1676" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1676" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1676" s="2">
+        <v>1749133165</v>
+      </c>
+      <c r="H1676" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1676" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1676" s="4">
+        <v>45813.930150463</v>
+      </c>
+      <c r="K1676" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1676" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1676" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:13">
+      <c r="B1677" s="2">
+        <v>63671</v>
+      </c>
+      <c r="C1677" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1677" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1677" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1677" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1677" s="2">
+        <v>1749133537</v>
+      </c>
+      <c r="H1677" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1677" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1677" s="4">
+        <v>45813.9344560185</v>
+      </c>
+      <c r="K1677" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1677" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1677" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:13">
+      <c r="B1678" s="2">
+        <v>63672</v>
+      </c>
+      <c r="C1678" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1678" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1678" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1678" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1678" s="2">
+        <v>1749134570</v>
+      </c>
+      <c r="H1678" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1678" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1678" s="4">
+        <v>45813.946412037</v>
+      </c>
+      <c r="K1678" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1678" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1678" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:13">
+      <c r="B1679" s="2">
+        <v>62977</v>
+      </c>
+      <c r="C1679" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1679" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1679" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1679" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1679" s="2">
+        <v>1749142653</v>
+      </c>
+      <c r="H1679" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1679" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1679" s="4">
+        <v>45814.0399652778</v>
+      </c>
+      <c r="K1679" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1679" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1679" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:13">
+      <c r="B1680" s="2">
+        <v>62978</v>
+      </c>
+      <c r="C1680" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1680" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1680" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1680" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1680" s="2">
+        <v>1749142731</v>
+      </c>
+      <c r="H1680" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1680" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1680" s="4">
+        <v>45814.0408680556</v>
+      </c>
+      <c r="K1680" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1680" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1680" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1681" spans="2:13">
+      <c r="B1681" s="2">
+        <v>63592</v>
+      </c>
+      <c r="C1681" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1681" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1681" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1681" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1681" s="2">
+        <v>1749216472</v>
+      </c>
+      <c r="H1681" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1681" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1681" s="4">
+        <v>45814.8943518518</v>
+      </c>
+      <c r="K1681" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1681" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1681" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1682" spans="2:13">
+      <c r="B1682" s="2">
+        <v>63593</v>
+      </c>
+      <c r="C1682" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1682" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1682" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1682" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1682" s="2">
+        <v>1749216480</v>
+      </c>
+      <c r="H1682" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1682" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1682" s="4">
+        <v>45814.8944444444</v>
+      </c>
+      <c r="K1682" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1682" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1682" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1683" spans="2:13">
+      <c r="B1683" s="2">
+        <v>63633</v>
+      </c>
+      <c r="C1683" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1683" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1683" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1683" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1683" s="2">
+        <v>1749219902</v>
+      </c>
+      <c r="H1683" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1683" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1683" s="4">
+        <v>45814.9340509259</v>
+      </c>
+      <c r="K1683" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1683" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1683" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1684" spans="2:13">
+      <c r="B1684" s="2">
+        <v>63887</v>
+      </c>
+      <c r="C1684" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1684" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1684" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1684" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1684" s="2">
+        <v>1749226122</v>
+      </c>
+      <c r="H1684" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1684" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1684" s="4">
+        <v>45815.0060416667</v>
+      </c>
+      <c r="K1684" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1684" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1684" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1685" spans="2:13">
+      <c r="B1685" s="2">
+        <v>63951</v>
+      </c>
+      <c r="C1685" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1685" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1685" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1685" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1685" s="2">
+        <v>1749228791</v>
+      </c>
+      <c r="H1685" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1685" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1685" s="4">
+        <v>45815.0369328704</v>
+      </c>
+      <c r="K1685" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1685" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1685" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1686" spans="2:13">
+      <c r="B1686" s="2">
+        <v>63952</v>
+      </c>
+      <c r="C1686" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1686" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1686" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1686" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1686" s="2">
+        <v>1749228808</v>
+      </c>
+      <c r="H1686" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1686" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1686" s="4">
+        <v>45815.0371296296</v>
+      </c>
+      <c r="K1686" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1686" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1686" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1687" spans="2:13">
+      <c r="B1687" s="2">
+        <v>64354</v>
+      </c>
+      <c r="C1687" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1687" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1687" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1687" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1687" s="2">
+        <v>1749301616</v>
+      </c>
+      <c r="H1687" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1687" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1687" s="4">
+        <v>45815.8798148148</v>
+      </c>
+      <c r="K1687" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1687" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1687" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1688" spans="2:13">
+      <c r="B1688" s="2">
+        <v>64355</v>
+      </c>
+      <c r="C1688" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1688" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1688" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1688" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1688" s="2">
+        <v>1749301631</v>
+      </c>
+      <c r="H1688" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1688" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1688" s="4">
+        <v>45815.8799884259</v>
+      </c>
+      <c r="K1688" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1688" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1688" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1689" spans="2:13">
+      <c r="B1689" s="2">
+        <v>64356</v>
+      </c>
+      <c r="C1689" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1689" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1689" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1689" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1689" s="2">
+        <v>1749301633</v>
+      </c>
+      <c r="H1689" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1689" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1689" s="4">
+        <v>45815.8800115741</v>
+      </c>
+      <c r="K1689" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1689" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1689" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1690" spans="2:13">
+      <c r="B1690" s="2">
+        <v>64357</v>
+      </c>
+      <c r="C1690" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1690" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1690" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1690" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1690" s="2">
+        <v>1749305095</v>
+      </c>
+      <c r="H1690" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1690" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1690" s="4">
+        <v>45815.9200810185</v>
+      </c>
+      <c r="K1690" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1690" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1690" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1691" spans="2:13">
+      <c r="B1691" s="2">
+        <v>64358</v>
+      </c>
+      <c r="C1691" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1691" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1691" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1691" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1691" s="2">
+        <v>1749308993</v>
+      </c>
+      <c r="H1691" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1691" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1691" s="4">
+        <v>45815.9651967593</v>
+      </c>
+      <c r="K1691" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1691" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1691" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1692" spans="2:13">
+      <c r="B1692" s="2">
+        <v>64359</v>
+      </c>
+      <c r="C1692" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1692" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1692" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1692" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1692" s="2">
+        <v>1749309079</v>
+      </c>
+      <c r="H1692" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1692" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1692" s="4">
+        <v>45815.9661921296</v>
+      </c>
+      <c r="K1692" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1692" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1692" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1693" spans="2:13">
+      <c r="B1693" s="2">
+        <v>64360</v>
+      </c>
+      <c r="C1693" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1693" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1693" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1693" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1693" s="2">
+        <v>1749388589</v>
+      </c>
+      <c r="H1693" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1693" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J1693" s="4">
+        <v>45816.8864467593</v>
+      </c>
+      <c r="K1693" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1693" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1693" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1694" spans="2:13">
+      <c r="B1694" s="2">
+        <v>64361</v>
+      </c>
+      <c r="C1694" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1694" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1694" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1694" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1694" s="2">
+        <v>1749390521</v>
+      </c>
+      <c r="H1694" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1694" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1694" s="4">
+        <v>45816.9088078704</v>
+      </c>
+      <c r="K1694" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1694" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1694" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1695" spans="2:13">
+      <c r="B1695" s="2">
+        <v>64362</v>
+      </c>
+      <c r="C1695" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1695" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1695" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1695" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1695" s="2">
+        <v>1749390525</v>
+      </c>
+      <c r="H1695" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1695" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1695" s="4">
+        <v>45816.9088541667</v>
+      </c>
+      <c r="K1695" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1695" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1695" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1696" spans="2:13">
+      <c r="B1696" s="2">
+        <v>64363</v>
+      </c>
+      <c r="C1696" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1696" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1696" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1696" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1696" s="2">
+        <v>1749395086</v>
+      </c>
+      <c r="H1696" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1696" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1696" s="4">
+        <v>45816.9616435185</v>
+      </c>
+      <c r="K1696" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1696" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1696" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1697" spans="2:13">
+      <c r="B1697" s="2">
+        <v>64364</v>
+      </c>
+      <c r="C1697" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1697" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1697" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1697" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1697" s="2">
+        <v>1749395152</v>
+      </c>
+      <c r="H1697" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1697" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1697" s="4">
+        <v>45816.9624074074</v>
+      </c>
+      <c r="K1697" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1697" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1697" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1698" spans="2:13">
+      <c r="B1698" s="2">
+        <v>64365</v>
+      </c>
+      <c r="C1698" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1698" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1698" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1698" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1698" s="2">
+        <v>1749475226</v>
+      </c>
+      <c r="H1698" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1698" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1698" s="4">
+        <v>45817.8891898148</v>
+      </c>
+      <c r="K1698" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1698" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1698" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1699" spans="2:13">
+      <c r="B1699" s="2">
+        <v>64366</v>
+      </c>
+      <c r="C1699" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1699" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1699" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1699" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1699" s="2">
+        <v>1749475240</v>
+      </c>
+      <c r="H1699" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1699" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1699" s="4">
+        <v>45817.8893518519</v>
+      </c>
+      <c r="K1699" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1699" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1699" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1700" spans="2:13">
+      <c r="B1700" s="2">
+        <v>64367</v>
+      </c>
+      <c r="C1700" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1700" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1700" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1700" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1700" s="2">
+        <v>1749475260</v>
+      </c>
+      <c r="H1700" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1700" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1700" s="4">
+        <v>45817.8895833333</v>
+      </c>
+      <c r="K1700" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1700" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1700" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1701" spans="2:13">
+      <c r="B1701" s="2">
+        <v>64368</v>
+      </c>
+      <c r="C1701" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1701" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1701" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1701" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1701" s="2">
+        <v>1749475269</v>
+      </c>
+      <c r="H1701" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1701" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1701" s="4">
+        <v>45817.8896875</v>
+      </c>
+      <c r="K1701" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1701" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1701" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1702" spans="2:13">
+      <c r="B1702" s="2">
+        <v>64369</v>
+      </c>
+      <c r="C1702" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1702" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1702" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1702" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1702" s="2">
+        <v>1749475387</v>
+      </c>
+      <c r="H1702" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1702" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1702" s="4">
+        <v>45817.8910532407</v>
+      </c>
+      <c r="K1702" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1702" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1702" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1703" spans="2:13">
+      <c r="B1703" s="2">
+        <v>64370</v>
+      </c>
+      <c r="C1703" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1703" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1703" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1703" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1703" s="2">
+        <v>1749475390</v>
+      </c>
+      <c r="H1703" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1703" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1703" s="4">
+        <v>45817.891087963</v>
+      </c>
+      <c r="K1703" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1703" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1703" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1704" spans="2:13">
+      <c r="B1704" s="2">
+        <v>64371</v>
+      </c>
+      <c r="C1704" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1704" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1704" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1704" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1704" s="2">
+        <v>1749476347</v>
+      </c>
+      <c r="H1704" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1704" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1704" s="4">
+        <v>45817.9021643518</v>
+      </c>
+      <c r="K1704" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1704" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1704" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1705" spans="2:13">
+      <c r="B1705" s="2">
+        <v>64372</v>
+      </c>
+      <c r="C1705" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1705" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1705" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1705" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1705" s="2">
+        <v>1749476816</v>
+      </c>
+      <c r="H1705" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1705" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J1705" s="4">
+        <v>45817.9075925926</v>
+      </c>
+      <c r="K1705" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1705" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1705" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1706" spans="2:13">
+      <c r="B1706" s="2">
+        <v>64373</v>
+      </c>
+      <c r="C1706" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1706" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1706" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1706" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1706" s="2">
+        <v>1749476873</v>
+      </c>
+      <c r="H1706" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1706" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1706" s="4">
+        <v>45817.9082523148</v>
+      </c>
+      <c r="K1706" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1706" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1706" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1707" spans="2:13">
+      <c r="B1707" s="2">
+        <v>64374</v>
+      </c>
+      <c r="C1707" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1707" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1707" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1707" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1707" s="2">
+        <v>1749476945</v>
+      </c>
+      <c r="H1707" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1707" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J1707" s="4">
+        <v>45817.9090856481</v>
+      </c>
+      <c r="K1707" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1707" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1707" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1708" spans="2:13">
+      <c r="B1708" s="2">
+        <v>64375</v>
+      </c>
+      <c r="C1708" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1708" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1708" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1708" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1708" s="2">
+        <v>1749478256</v>
+      </c>
+      <c r="H1708" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1708" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1708" s="4">
+        <v>45817.9242592593</v>
+      </c>
+      <c r="K1708" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1708" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1708" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1709" spans="2:13">
+      <c r="B1709" s="2">
+        <v>64376</v>
+      </c>
+      <c r="C1709" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1709" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1709" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1709" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1709" s="2">
+        <v>1749478271</v>
+      </c>
+      <c r="H1709" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1709" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J1709" s="4">
+        <v>45817.9244328704</v>
+      </c>
+      <c r="K1709" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1709" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1709" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1710" spans="2:13">
+      <c r="B1710" s="2">
+        <v>64377</v>
+      </c>
+      <c r="C1710" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1710" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1710" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1710" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1710" s="2">
+        <v>1749574511</v>
+      </c>
+      <c r="H1710" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1710" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1710" s="4">
+        <v>45819.0383217593</v>
+      </c>
+      <c r="K1710" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1710" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1710" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1711" spans="2:13">
+      <c r="B1711" s="2">
+        <v>64378</v>
+      </c>
+      <c r="C1711" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1711" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1711" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1711" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1711" s="2">
+        <v>1749574526</v>
+      </c>
+      <c r="H1711" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1711" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J1711" s="4">
+        <v>45819.0384953704</v>
+      </c>
+      <c r="K1711" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1711" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1711" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1712" spans="2:13">
+      <c r="B1712" s="2">
+        <v>64379</v>
+      </c>
+      <c r="C1712" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1712" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1712" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1712" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1712" s="2">
+        <v>1749574545</v>
+      </c>
+      <c r="H1712" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1712" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1712" s="4">
+        <v>45819.0387152778</v>
+      </c>
+      <c r="K1712" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1712" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1712" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1713" spans="2:13">
+      <c r="B1713" s="2">
+        <v>64380</v>
+      </c>
+      <c r="C1713" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1713" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1713" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1713" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1713" s="2">
+        <v>1749574554</v>
+      </c>
+      <c r="H1713" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1713" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1713" s="4">
+        <v>45819.0388194444</v>
+      </c>
+      <c r="K1713" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1713" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1713" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1714" spans="2:13">
+      <c r="B1714" s="2">
+        <v>64381</v>
+      </c>
+      <c r="C1714" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1714" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1714" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1714" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1714" s="2">
+        <v>1749574562</v>
+      </c>
+      <c r="H1714" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1714" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J1714" s="4">
+        <v>45819.038912037</v>
+      </c>
+      <c r="K1714" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1714" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1714" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1715" spans="2:13">
+      <c r="B1715" s="2">
+        <v>64382</v>
+      </c>
+      <c r="C1715" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1715" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1715" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1715" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1715" s="2">
+        <v>1749574644</v>
+      </c>
+      <c r="H1715" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1715" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1715" s="4">
+        <v>45819.0398611111</v>
+      </c>
+      <c r="K1715" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1715" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1715" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1716" spans="2:13">
+      <c r="B1716" s="2">
+        <v>64383</v>
+      </c>
+      <c r="C1716" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1716" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1716" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1716" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1716" s="2">
+        <v>1749574660</v>
+      </c>
+      <c r="H1716" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1716" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1716" s="4">
+        <v>45819.0400462963</v>
+      </c>
+      <c r="K1716" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1716" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1716" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1717" spans="2:13">
+      <c r="B1717" s="2">
+        <v>64384</v>
+      </c>
+      <c r="C1717" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1717" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1717" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1717" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1717" s="2">
+        <v>1749574676</v>
+      </c>
+      <c r="H1717" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1717" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1717" s="4">
+        <v>45819.0402314815</v>
+      </c>
+      <c r="K1717" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1717" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1717" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1718" spans="2:13">
+      <c r="B1718" s="2">
+        <v>64385</v>
+      </c>
+      <c r="C1718" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1718" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1718" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1718" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1718" s="2">
+        <v>1749574678</v>
+      </c>
+      <c r="H1718" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1718" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1718" s="4">
+        <v>45819.0402546296</v>
+      </c>
+      <c r="K1718" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1718" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1718" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1719" spans="2:13">
+      <c r="B1719" s="2">
+        <v>64386</v>
+      </c>
+      <c r="C1719" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1719" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1719" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1719" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1719" s="2">
+        <v>1749577814</v>
+      </c>
+      <c r="H1719" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1719" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1719" s="4">
+        <v>45819.0765509259</v>
+      </c>
+      <c r="K1719" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1719" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1719" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1720" spans="2:13">
+      <c r="B1720" s="2">
+        <v>64387</v>
+      </c>
+      <c r="C1720" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1720" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1720" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1720" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1720" s="2">
+        <v>1749577830</v>
+      </c>
+      <c r="H1720" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1720" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1720" s="4">
+        <v>45819.0767361111</v>
+      </c>
+      <c r="K1720" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1720" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1720" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1721" spans="2:13">
+      <c r="B1721" s="2">
+        <v>64388</v>
+      </c>
+      <c r="C1721" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1721" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1721" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1721" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1721" s="2">
+        <v>1749599081</v>
+      </c>
+      <c r="H1721" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1721" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="J1721" s="4">
+        <v>45819.3226967593</v>
+      </c>
+      <c r="K1721" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1721" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1721" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1722" spans="2:13">
+      <c r="B1722" s="2">
+        <v>64389</v>
+      </c>
+      <c r="C1722" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1722" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1722" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1722" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1722" s="2">
+        <v>1749599255</v>
+      </c>
+      <c r="H1722" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1722" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1722" s="4">
+        <v>45819.3247106482</v>
+      </c>
+      <c r="K1722" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1722" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1722" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1723" spans="2:13">
+      <c r="B1723" s="2">
+        <v>64390</v>
+      </c>
+      <c r="C1723" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1723" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1723" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1723" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1723" s="2">
+        <v>1749599658</v>
+      </c>
+      <c r="H1723" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1723" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1723" s="4">
+        <v>45819.329375</v>
+      </c>
+      <c r="K1723" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1723" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1723" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1724" spans="2:13">
+      <c r="B1724" s="2">
+        <v>64391</v>
+      </c>
+      <c r="C1724" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1724" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1724" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1724" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1724" s="2">
+        <v>1749599741</v>
+      </c>
+      <c r="H1724" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1724" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="J1724" s="4">
+        <v>45819.3303356481</v>
+      </c>
+      <c r="K1724" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1724" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1724" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1725" spans="2:13">
+      <c r="B1725" s="2">
+        <v>64392</v>
+      </c>
+      <c r="C1725" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1725" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1725" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1725" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1725" s="2">
+        <v>1749601762</v>
+      </c>
+      <c r="H1725" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1725" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="J1725" s="4">
+        <v>45819.3537268518</v>
+      </c>
+      <c r="K1725" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1725" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1725" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1726" spans="2:13">
+      <c r="B1726" s="2">
+        <v>64393</v>
+      </c>
+      <c r="C1726" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1726" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1726" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1726" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1726" s="2">
+        <v>1749602036</v>
+      </c>
+      <c r="H1726" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1726" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="J1726" s="4">
+        <v>45819.3568981482</v>
+      </c>
+      <c r="K1726" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1726" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1726" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1727" spans="2:13">
+      <c r="B1727" s="2">
+        <v>64394</v>
+      </c>
+      <c r="C1727" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1727" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1727" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1727" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1727" s="2">
+        <v>1749651876</v>
+      </c>
+      <c r="H1727" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1727" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1727" s="4">
+        <v>45819.93375</v>
+      </c>
+      <c r="K1727" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1727" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1727" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1728" spans="2:13">
+      <c r="B1728" s="2">
+        <v>64395</v>
+      </c>
+      <c r="C1728" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1728" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1728" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1728" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1728" s="2">
+        <v>1749690937</v>
+      </c>
+      <c r="H1728" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1728" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1728" s="4">
+        <v>45820.3858449074</v>
+      </c>
+      <c r="K1728" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1728" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1728" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1729" spans="2:13">
+      <c r="B1729" s="2">
+        <v>64396</v>
+      </c>
+      <c r="C1729" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1729" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1729" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1729" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1729" s="2">
+        <v>1749690950</v>
+      </c>
+      <c r="H1729" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1729" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1729" s="4">
+        <v>45820.3859953704</v>
+      </c>
+      <c r="K1729" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1729" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1729" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1730" spans="2:13">
+      <c r="B1730" s="2">
+        <v>64397</v>
+      </c>
+      <c r="C1730" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1730" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1730" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1730" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1730" s="2">
+        <v>1749691033</v>
+      </c>
+      <c r="H1730" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1730" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1730" s="4">
+        <v>45820.3869560185</v>
+      </c>
+      <c r="K1730" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1730" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1730" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1731" spans="2:13">
+      <c r="B1731" s="2">
+        <v>64398</v>
+      </c>
+      <c r="C1731" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1731" s="2">
+        <v>49</v>
+      </c>
+      <c r="E1731" s="2">
+        <v>57</v>
+      </c>
+      <c r="F1731" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1731" s="2">
+        <v>1749691245</v>
+      </c>
+      <c r="H1731" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1731" s="2"/>
+      <c r="J1731" s="4">
+        <v>45820.3894097222</v>
+      </c>
+      <c r="K1731" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1731" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1731" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1732" spans="2:13">
+      <c r="B1732" s="2">
+        <v>64399</v>
+      </c>
+      <c r="C1732" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1732" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1732" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1732" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1732" s="2">
+        <v>1749694522</v>
+      </c>
+      <c r="H1732" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1732" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1732" s="4">
+        <v>45820.427337963</v>
+      </c>
+      <c r="K1732" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1732" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1732" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1733" spans="2:13">
+      <c r="B1733" s="2">
+        <v>64400</v>
+      </c>
+      <c r="C1733" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1733" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1733" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1733" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1733" s="2">
+        <v>1749695584</v>
+      </c>
+      <c r="H1733" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1733" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1733" s="4">
+        <v>45820.4396296296</v>
+      </c>
+      <c r="K1733" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1733" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1733" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1734" spans="2:13">
+      <c r="B1734" s="2">
+        <v>64401</v>
+      </c>
+      <c r="C1734" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1734" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1734" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1734" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1734" s="2">
+        <v>1749697929</v>
+      </c>
+      <c r="H1734" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1734" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J1734" s="4">
+        <v>45820.4667708333</v>
+      </c>
+      <c r="K1734" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1734" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1734" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1735" spans="2:13">
+      <c r="B1735" s="2">
+        <v>64402</v>
+      </c>
+      <c r="C1735" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1735" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1735" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1735" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1735" s="2">
+        <v>1749701670</v>
+      </c>
+      <c r="H1735" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1735" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1735" s="4">
+        <v>45820.5100694444</v>
+      </c>
+      <c r="K1735" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1735" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1735" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1736" spans="2:13">
+      <c r="B1736" s="2">
+        <v>64403</v>
+      </c>
+      <c r="C1736" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1736" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1736" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1736" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1736" s="2">
+        <v>1749702509</v>
+      </c>
+      <c r="H1736" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1736" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1736" s="4">
+        <v>45820.5197800926</v>
+      </c>
+      <c r="K1736" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1736" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1736" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1737" spans="2:13">
+      <c r="B1737" s="2">
+        <v>64404</v>
+      </c>
+      <c r="C1737" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1737" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1737" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1737" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1737" s="2">
+        <v>1749822125</v>
+      </c>
+      <c r="H1737" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1737" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="J1737" s="4">
+        <v>45821.904224537</v>
+      </c>
+      <c r="K1737" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1737" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1737" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1738" spans="2:13">
+      <c r="B1738" s="2">
+        <v>64405</v>
+      </c>
+      <c r="C1738" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1738" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1738" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1738" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1738" s="2">
+        <v>1749822182</v>
+      </c>
+      <c r="H1738" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1738" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="J1738" s="4">
+        <v>45821.9048842593</v>
+      </c>
+      <c r="K1738" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1738" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1738" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1739" spans="2:13">
+      <c r="B1739" s="2">
+        <v>64406</v>
+      </c>
+      <c r="C1739" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1739" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E1739" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1739" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1739" s="2">
+        <v>1749823763</v>
+      </c>
+      <c r="H1739" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1739" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1739" s="4">
+        <v>45821.9231828704</v>
+      </c>
+      <c r="K1739" s="2"/>
+      <c r="L1739" s="2"/>
+      <c r="M1739" s="2"/>
+    </row>
+    <row r="1740" spans="2:13">
+      <c r="B1740" s="2">
+        <v>64407</v>
+      </c>
+      <c r="C1740" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1740" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1740" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1740" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1740" s="2">
+        <v>1749823773</v>
+      </c>
+      <c r="H1740" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1740" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J1740" s="4">
+        <v>45821.9232986111</v>
+      </c>
+      <c r="K1740" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1740" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1740" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1741" spans="2:13">
+      <c r="B1741" s="2">
+        <v>64408</v>
+      </c>
+      <c r="C1741" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1741" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1741" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1741" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1741" s="2">
+        <v>1749823944</v>
+      </c>
+      <c r="H1741" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1741" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1741" s="4">
+        <v>45821.9252777778</v>
+      </c>
+      <c r="K1741" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1741" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1741" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1742" spans="2:13">
+      <c r="B1742" s="2">
+        <v>64409</v>
+      </c>
+      <c r="C1742" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1742" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1742" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1742" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1742" s="2">
+        <v>1749823961</v>
+      </c>
+      <c r="H1742" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1742" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1742" s="4">
+        <v>45821.925474537</v>
+      </c>
+      <c r="K1742" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1742" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1742" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1743" spans="2:13">
+      <c r="B1743" s="2">
+        <v>64410</v>
+      </c>
+      <c r="C1743" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1743" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1743" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1743" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1743" s="2">
+        <v>1749826430</v>
+      </c>
+      <c r="H1743" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1743" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1743" s="4">
+        <v>45821.9540509259</v>
+      </c>
+      <c r="K1743" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1743" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1743" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1744" spans="2:13">
+      <c r="B1744" s="2">
+        <v>64411</v>
+      </c>
+      <c r="C1744" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1744" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1744" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1744" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1744" s="2">
+        <v>1749826455</v>
+      </c>
+      <c r="H1744" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1744" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1744" s="4">
+        <v>45821.9543402778</v>
+      </c>
+      <c r="K1744" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1744" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1744" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1745" spans="2:13">
+      <c r="B1745" s="2">
+        <v>64412</v>
+      </c>
+      <c r="C1745" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1745" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1745" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1745" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1745" s="2">
+        <v>1749826472</v>
+      </c>
+      <c r="H1745" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1745" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1745" s="4">
+        <v>45821.954537037</v>
+      </c>
+      <c r="K1745" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1745" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1745" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1746" spans="2:13">
+      <c r="B1746" s="2">
+        <v>64413</v>
+      </c>
+      <c r="C1746" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1746" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1746" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1746" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1746" s="2">
+        <v>1749826501</v>
+      </c>
+      <c r="H1746" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1746" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1746" s="4">
+        <v>45821.9548726852</v>
+      </c>
+      <c r="K1746" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1746" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1746" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1747" spans="2:13">
+      <c r="B1747" s="2">
+        <v>64414</v>
+      </c>
+      <c r="C1747" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1747" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1747" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1747" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1747" s="2">
+        <v>1749828020</v>
+      </c>
+      <c r="H1747" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1747" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1747" s="4">
+        <v>45821.9724537037</v>
+      </c>
+      <c r="K1747" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1747" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1747" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1748" spans="2:13">
+      <c r="B1748" s="2">
+        <v>64415</v>
+      </c>
+      <c r="C1748" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1748" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1748" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1748" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1748" s="2">
+        <v>1749829200</v>
+      </c>
+      <c r="H1748" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1748" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1748" s="4">
+        <v>45821.9861111111</v>
+      </c>
+      <c r="K1748" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1748" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1748" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1749" spans="2:13">
+      <c r="B1749" s="2">
+        <v>64416</v>
+      </c>
+      <c r="C1749" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1749" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1749" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1749" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1749" s="2">
+        <v>1749907765</v>
+      </c>
+      <c r="H1749" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1749" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1749" s="4">
+        <v>45822.8954282407</v>
+      </c>
+      <c r="K1749" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1749" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1749" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1750" spans="2:13">
+      <c r="B1750" s="2">
+        <v>64417</v>
+      </c>
+      <c r="C1750" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1750" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1750" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1750" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1750" s="2">
+        <v>1749907964</v>
+      </c>
+      <c r="H1750" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1750" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1750" s="4">
+        <v>45822.8977314815</v>
+      </c>
+      <c r="K1750" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1750" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1750" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1751" spans="2:13">
+      <c r="B1751" s="2">
+        <v>64418</v>
+      </c>
+      <c r="C1751" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1751" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1751" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1751" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1751" s="2">
+        <v>1749908925</v>
+      </c>
+      <c r="H1751" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1751" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1751" s="4">
+        <v>45822.9088541667</v>
+      </c>
+      <c r="K1751" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1751" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1751" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1752" spans="2:13">
+      <c r="B1752" s="2">
+        <v>64419</v>
+      </c>
+      <c r="C1752" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1752" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1752" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1752" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1752" s="2">
+        <v>1749909259</v>
+      </c>
+      <c r="H1752" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1752" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1752" s="4">
+        <v>45822.9127199074</v>
+      </c>
+      <c r="K1752" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1752" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1752" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1753" spans="2:13">
+      <c r="B1753" s="2">
+        <v>64420</v>
+      </c>
+      <c r="C1753" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1753" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1753" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1753" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1753" s="2">
+        <v>1749909763</v>
+      </c>
+      <c r="H1753" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1753" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1753" s="4">
+        <v>45822.9185532407</v>
+      </c>
+      <c r="K1753" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1753" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1753" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1754" spans="2:13">
+      <c r="B1754" s="2">
+        <v>64421</v>
+      </c>
+      <c r="C1754" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1754" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1754" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1754" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1754" s="2">
+        <v>1749909803</v>
+      </c>
+      <c r="H1754" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1754" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1754" s="4">
+        <v>45822.9190162037</v>
+      </c>
+      <c r="K1754" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1754" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1754" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1755" spans="2:13">
+      <c r="B1755" s="2">
+        <v>64422</v>
+      </c>
+      <c r="C1755" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1755" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1755" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1755" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1755" s="2">
+        <v>1749913813</v>
+      </c>
+      <c r="H1755" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1755" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1755" s="4">
+        <v>45822.9654282407</v>
+      </c>
+      <c r="K1755" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1755" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1755" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1756" spans="2:13">
+      <c r="B1756" s="2">
+        <v>64423</v>
+      </c>
+      <c r="C1756" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1756" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1756" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1756" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1756" s="2">
+        <v>1749998485</v>
+      </c>
+      <c r="H1756" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1756" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1756" s="4">
+        <v>45823.9454282407</v>
+      </c>
+      <c r="K1756" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1756" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1756" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1757" spans="2:13">
+      <c r="B1757" s="2">
+        <v>64424</v>
+      </c>
+      <c r="C1757" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1757" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1757" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1757" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1757" s="2">
+        <v>1749999423</v>
+      </c>
+      <c r="H1757" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1757" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1757" s="4">
+        <v>45823.9562847222</v>
+      </c>
+      <c r="K1757" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1757" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1757" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1758" spans="2:13">
+      <c r="B1758" s="2">
+        <v>64425</v>
+      </c>
+      <c r="C1758" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1758" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1758" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1758" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1758" s="2">
+        <v>1750003225</v>
+      </c>
+      <c r="H1758" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1758" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1758" s="4">
+        <v>45824.0002893519</v>
+      </c>
+      <c r="K1758" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1758" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1758" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1759" spans="2:13">
+      <c r="B1759" s="2">
+        <v>64426</v>
+      </c>
+      <c r="C1759" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1759" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1759" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1759" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1759" s="2">
+        <v>1750079349</v>
+      </c>
+      <c r="H1759" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1759" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1759" s="4">
+        <v>45824.8813541667</v>
+      </c>
+      <c r="K1759" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1759" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1759" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1760" spans="2:13">
+      <c r="B1760" s="2">
+        <v>64427</v>
+      </c>
+      <c r="C1760" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1760" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1760" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1760" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1760" s="2">
+        <v>1750079418</v>
+      </c>
+      <c r="H1760" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1760" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1760" s="4">
+        <v>45824.8821527778</v>
+      </c>
+      <c r="K1760" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1760" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1760" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1761" spans="2:13">
+      <c r="B1761" s="2">
+        <v>64428</v>
+      </c>
+      <c r="C1761" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1761" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1761" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1761" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1761" s="2">
+        <v>1750079561</v>
+      </c>
+      <c r="H1761" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1761" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1761" s="4">
+        <v>45824.8838078704</v>
+      </c>
+      <c r="K1761" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1761" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1761" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1762" spans="2:13">
+      <c r="B1762" s="2">
+        <v>64429</v>
+      </c>
+      <c r="C1762" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1762" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1762" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1762" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1762" s="2">
+        <v>1750079642</v>
+      </c>
+      <c r="H1762" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1762" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1762" s="4">
+        <v>45824.8847453704</v>
+      </c>
+      <c r="K1762" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1762" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1762" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1763" spans="2:13">
+      <c r="B1763" s="2">
+        <v>64430</v>
+      </c>
+      <c r="C1763" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1763" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1763" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1763" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1763" s="2">
+        <v>1750079665</v>
+      </c>
+      <c r="H1763" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1763" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1763" s="4">
+        <v>45824.8850115741</v>
+      </c>
+      <c r="K1763" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1763" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1763" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1764" spans="2:13">
+      <c r="B1764" s="2">
+        <v>64431</v>
+      </c>
+      <c r="C1764" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1764" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1764" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1764" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1764" s="2">
+        <v>1750079673</v>
+      </c>
+      <c r="H1764" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1764" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1764" s="4">
+        <v>45824.8851041667</v>
+      </c>
+      <c r="K1764" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1764" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1764" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1765" spans="2:13">
+      <c r="B1765" s="2">
+        <v>64432</v>
+      </c>
+      <c r="C1765" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1765" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1765" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1765" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1765" s="2">
+        <v>1750080187</v>
+      </c>
+      <c r="H1765" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1765" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1765" s="4">
+        <v>45824.8910532407</v>
+      </c>
+      <c r="K1765" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1765" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1765" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1766" spans="2:13">
+      <c r="B1766" s="2">
+        <v>64433</v>
+      </c>
+      <c r="C1766" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1766" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1766" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1766" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1766" s="2">
+        <v>1750080381</v>
+      </c>
+      <c r="H1766" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1766" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1766" s="4">
+        <v>45824.8932986111</v>
+      </c>
+      <c r="K1766" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1766" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1766" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1767" spans="2:13">
+      <c r="B1767" s="2">
+        <v>64434</v>
+      </c>
+      <c r="C1767" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1767" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1767" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1767" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1767" s="2">
+        <v>1750080721</v>
+      </c>
+      <c r="H1767" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1767" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1767" s="4">
+        <v>45824.8972337963</v>
+      </c>
+      <c r="K1767" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1767" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1767" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1768" spans="2:13">
+      <c r="B1768" s="2">
+        <v>64435</v>
+      </c>
+      <c r="C1768" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1768" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1768" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1768" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1768" s="2">
+        <v>1750082356</v>
+      </c>
+      <c r="H1768" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1768" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1768" s="4">
+        <v>45824.9161574074</v>
+      </c>
+      <c r="K1768" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1768" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1768" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1769" spans="2:13">
+      <c r="B1769" s="2">
+        <v>64107</v>
+      </c>
+      <c r="C1769" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1769" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1769" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1769" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1769" s="2">
+        <v>1750090433</v>
+      </c>
+      <c r="H1769" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1769" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1769" s="4">
+        <v>45825.0096412037</v>
+      </c>
+      <c r="K1769" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1769" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1769" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1770" spans="2:13">
+      <c r="B1770" s="2">
+        <v>64108</v>
+      </c>
+      <c r="C1770" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1770" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1770" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1770" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1770" s="2">
+        <v>1750173046</v>
+      </c>
+      <c r="H1770" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1770" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1770" s="4">
+        <v>45825.9658101852</v>
+      </c>
+      <c r="K1770" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1770" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1770" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1771" spans="2:13">
+      <c r="B1771" s="2">
+        <v>64109</v>
+      </c>
+      <c r="C1771" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1771" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1771" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1771" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1771" s="2">
+        <v>1750173060</v>
+      </c>
+      <c r="H1771" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1771" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1771" s="4">
+        <v>45825.9659722222</v>
+      </c>
+      <c r="K1771" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1771" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1771" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1772" spans="2:13">
+      <c r="B1772" s="2">
+        <v>64110</v>
+      </c>
+      <c r="C1772" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1772" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1772" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1772" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1772" s="2">
+        <v>1750173362</v>
+      </c>
+      <c r="H1772" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1772" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1772" s="4">
+        <v>45825.9694675926</v>
+      </c>
+      <c r="K1772" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1772" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1772" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1773" spans="2:13">
+      <c r="B1773" s="2">
+        <v>64111</v>
+      </c>
+      <c r="C1773" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1773" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E1773" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1773" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1773" s="2">
+        <v>1750173440</v>
+      </c>
+      <c r="H1773" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1773" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1773" s="4">
+        <v>45825.9703703704</v>
+      </c>
+      <c r="K1773" s="2"/>
+      <c r="L1773" s="2"/>
+      <c r="M1773" s="2"/>
+    </row>
+    <row r="1774" spans="2:13">
+      <c r="B1774" s="2">
+        <v>64112</v>
+      </c>
+      <c r="C1774" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1774" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1774" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1774" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1774" s="2">
+        <v>1750173445</v>
+      </c>
+      <c r="H1774" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1774" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1774" s="4">
+        <v>45825.9704282407</v>
+      </c>
+      <c r="K1774" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1774" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1774" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1775" spans="2:13">
+      <c r="B1775" s="2">
+        <v>64113</v>
+      </c>
+      <c r="C1775" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1775" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1775" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1775" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1775" s="2">
+        <v>1750173511</v>
+      </c>
+      <c r="H1775" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1775" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1775" s="4">
+        <v>45825.9711921296</v>
+      </c>
+      <c r="K1775" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1775" s="2">
+        <v>995</v>
+      </c>
+      <c r="M1775" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1776" spans="2:13">
+      <c r="B1776" s="2">
+        <v>64114</v>
+      </c>
+      <c r="C1776" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1776" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1776" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1776" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1776" s="2">
+        <v>1750173566</v>
+      </c>
+      <c r="H1776" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1776" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1776" s="4">
+        <v>45825.9718287037</v>
+      </c>
+      <c r="K1776" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1776" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1776" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1777" spans="2:13">
+      <c r="B1777" s="2">
+        <v>64115</v>
+      </c>
+      <c r="C1777" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1777" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1777" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1777" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1777" s="2">
+        <v>1750173580</v>
+      </c>
+      <c r="H1777" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1777" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1777" s="4">
+        <v>45825.9719907407</v>
+      </c>
+      <c r="K1777" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1777" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1777" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1778" spans="2:13">
+      <c r="B1778" s="2">
+        <v>64116</v>
+      </c>
+      <c r="C1778" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1778" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1778" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1778" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1778" s="2">
+        <v>1750173828</v>
+      </c>
+      <c r="H1778" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1778" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1778" s="4">
+        <v>45825.9748611111</v>
+      </c>
+      <c r="K1778" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1778" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1778" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1779" spans="2:13">
+      <c r="B1779" s="2">
+        <v>64117</v>
+      </c>
+      <c r="C1779" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1779" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1779" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1779" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1779" s="2">
+        <v>1750175147</v>
+      </c>
+      <c r="H1779" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1779" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1779" s="4">
+        <v>45825.9901273148</v>
+      </c>
+      <c r="K1779" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1779" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1779" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1780" spans="2:13">
+      <c r="B1780" s="2">
+        <v>64057</v>
+      </c>
+      <c r="C1780" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1780" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1780" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1780" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1780" s="2">
+        <v>1750255583</v>
+      </c>
+      <c r="H1780" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1780" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="J1780" s="4">
+        <v>45826.921099537</v>
+      </c>
+      <c r="K1780" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1780" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1780" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1781" spans="2:13">
+      <c r="B1781" s="2">
+        <v>64058</v>
+      </c>
+      <c r="C1781" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1781" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1781" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1781" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1781" s="2">
+        <v>1750257690</v>
+      </c>
+      <c r="H1781" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1781" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1781" s="4">
+        <v>45826.9454861111</v>
+      </c>
+      <c r="K1781" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1781" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1781" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1782" spans="2:13">
+      <c r="B1782" s="2">
+        <v>64060</v>
+      </c>
+      <c r="C1782" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1782" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1782" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1782" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1782" s="2">
+        <v>1750257827</v>
+      </c>
+      <c r="H1782" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1782" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1782" s="4">
+        <v>45826.9470717593</v>
+      </c>
+      <c r="K1782" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1782" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1782" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1783" spans="2:13">
+      <c r="B1783" s="2">
+        <v>64065</v>
+      </c>
+      <c r="C1783" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1783" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1783" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1783" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1783" s="2">
+        <v>1750257904</v>
+      </c>
+      <c r="H1783" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1783" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1783" s="4">
+        <v>45826.947962963</v>
+      </c>
+      <c r="K1783" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1783" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1783" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1784" spans="2:13">
+      <c r="B1784" s="2">
+        <v>64066</v>
+      </c>
+      <c r="C1784" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1784" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1784" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1784" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1784" s="2">
+        <v>1750257944</v>
+      </c>
+      <c r="H1784" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1784" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1784" s="4">
+        <v>45826.9484259259</v>
+      </c>
+      <c r="K1784" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1784" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1784" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1785" spans="2:13">
+      <c r="B1785" s="2">
+        <v>64067</v>
+      </c>
+      <c r="C1785" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1785" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1785" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1785" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1785" s="2">
+        <v>1750257958</v>
+      </c>
+      <c r="H1785" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1785" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1785" s="4">
+        <v>45826.948587963</v>
+      </c>
+      <c r="K1785" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1785" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1785" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1786" spans="2:13">
+      <c r="B1786" s="2">
+        <v>64068</v>
+      </c>
+      <c r="C1786" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1786" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1786" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1786" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1786" s="2">
+        <v>1750258377</v>
+      </c>
+      <c r="H1786" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1786" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1786" s="4">
+        <v>45826.9534375</v>
+      </c>
+      <c r="K1786" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1786" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1786" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1787" spans="2:13">
+      <c r="B1787" s="2">
+        <v>64069</v>
+      </c>
+      <c r="C1787" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1787" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E1787" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1787" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1787" s="2">
+        <v>1750258378</v>
+      </c>
+      <c r="H1787" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1787" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J1787" s="4">
+        <v>45826.9534490741</v>
+      </c>
+      <c r="K1787" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="L1787" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="M1787" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1788" spans="2:13">
+      <c r="B1788" s="2">
+        <v>64070</v>
+      </c>
+      <c r="C1788" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1788" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1788" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1788" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1788" s="2">
+        <v>1750258505</v>
+      </c>
+      <c r="H1788" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1788" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J1788" s="4">
+        <v>45826.9549189815</v>
+      </c>
+      <c r="K1788" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="L1788" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="M1788" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
